--- a/PROJECT/Project 1/project1.xlsx
+++ b/PROJECT/Project 1/project1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martinezar\Desktop\python\project\Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2152FFCB-CB02-41E3-8BB4-0F3C03BE36D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320FBA74-F7EE-4BA2-B7BF-7E72A2B04F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B19F6FDF-1118-41ED-8D07-8DFE2BBF9769}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B19F6FDF-1118-41ED-8D07-8DFE2BBF9769}"/>
   </bookViews>
   <sheets>
     <sheet name="ICBM Requirements" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="1066">
   <si>
     <t>Configuration Items</t>
   </si>
@@ -3224,6 +3224,9 @@
   </si>
   <si>
     <t xml:space="preserve"> If a hazardous material is a mixture or solution of two or more hazardous materials, the technical names of at least two components most predominately contributing to the hazards of the mixture or solution must be entered on the shipping paper as required by paragraph (k) of this section. For example, ‘‘Flammable liquid, corrosive, n.o.s., 3, UN 2924, II (contains Methanol, Potassium hydroxide)’’</t>
+  </si>
+  <si>
+    <t>Close Date</t>
   </si>
 </sst>
 </file>
@@ -3713,7 +3716,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3727,6 +3730,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4102,15 +4106,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A235C8-08DD-4E4C-896B-0BADA2F0A9E8}">
-  <dimension ref="A1:K250"/>
+  <dimension ref="A1:L250"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4144,54 +4156,60 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="L2" s="5">
+        <v>45718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -4200,33 +4218,36 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="L3" s="5">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
@@ -4235,33 +4256,36 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="L4" s="5">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -4270,33 +4294,36 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
         <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="L5" s="5">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
@@ -4305,36 +4332,39 @@
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
         <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="J6" t="s">
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="L6" s="5">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -4346,30 +4376,33 @@
         <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s">
         <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="L7" s="5">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>764</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>771</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>772</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>773</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -4378,33 +4411,30 @@
         <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>53</v>
+        <v>311</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="L8" s="5">
+        <v>45724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>764</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>774</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>775</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>776</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -4413,30 +4443,27 @@
         <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>58</v>
+        <v>311</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="L9" s="5">
+        <v>45725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>764</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>777</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>778</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>779</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
@@ -4448,33 +4475,30 @@
         <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>63</v>
+        <v>311</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="L10" s="5">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>764</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>780</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>781</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>782</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -4483,33 +4507,30 @@
         <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s">
-        <v>68</v>
+        <v>311</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="L11" s="5">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>764</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>783</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>784</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>785</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -4518,360 +4539,312 @@
         <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" t="s">
-        <v>73</v>
+        <v>311</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="L12" s="5">
+        <v>45728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>764</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>786</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>787</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>788</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="L13" s="5">
+        <v>45729</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>764</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>789</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>790</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>791</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" t="s">
-        <v>84</v>
+        <v>311</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="L14" s="5">
+        <v>45730</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>764</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>792</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>793</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>794</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s">
-        <v>89</v>
+        <v>311</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="L15" s="5">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>764</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>795</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>796</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>797</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s">
-        <v>94</v>
+        <v>311</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" t="s">
-        <v>95</v>
+        <v>115</v>
+      </c>
+      <c r="L16" s="5">
+        <v>45732</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>764</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>798</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>799</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>800</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s">
-        <v>99</v>
+        <v>311</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>764</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>801</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>802</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>803</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" t="s">
-        <v>104</v>
+        <v>311</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>764</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>804</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>805</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>806</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" t="s">
-        <v>16</v>
+        <v>170</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" t="s">
-        <v>109</v>
+        <v>311</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>764</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>807</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>808</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>800</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" t="s">
-        <v>114</v>
+        <v>311</v>
       </c>
       <c r="J20" t="s">
         <v>115</v>
-      </c>
-      <c r="K20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>764</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>809</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>810</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>811</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" t="s">
-        <v>120</v>
+        <v>311</v>
       </c>
       <c r="J21" t="s">
         <v>115</v>
       </c>
-      <c r="K21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>764</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>812</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" t="s">
-        <v>124</v>
+        <v>813</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>814</v>
       </c>
       <c r="E22" t="s">
         <v>83</v>
       </c>
-      <c r="F22" t="s">
-        <v>16</v>
+      <c r="F22">
+        <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" t="s">
-        <v>125</v>
+        <v>311</v>
       </c>
       <c r="J22" t="s">
         <v>115</v>
@@ -4879,31 +4852,28 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>764</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>815</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>816</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>817</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" t="s">
-        <v>16</v>
+        <v>83</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" t="s">
-        <v>129</v>
+        <v>311</v>
       </c>
       <c r="J23" t="s">
         <v>115</v>
@@ -4911,31 +4881,28 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>764</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>818</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>819</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>820</v>
       </c>
       <c r="E24" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" t="s">
-        <v>134</v>
+        <v>311</v>
       </c>
       <c r="J24" t="s">
         <v>115</v>
@@ -4943,22 +4910,22 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="G25" t="s">
         <v>17</v>
@@ -4967,30 +4934,33 @@
         <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s">
-        <v>115</v>
+        <v>20</v>
+      </c>
+      <c r="K25" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="G26" t="s">
         <v>17</v>
@@ -4999,30 +4969,33 @@
         <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="J26" t="s">
-        <v>115</v>
+        <v>20</v>
+      </c>
+      <c r="K26" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
@@ -5031,27 +5004,33 @@
         <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="J27" t="s">
-        <v>115</v>
+        <v>20</v>
+      </c>
+      <c r="K27" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>152</v>
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="G28" t="s">
         <v>17</v>
@@ -5060,30 +5039,33 @@
         <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="J28" t="s">
-        <v>115</v>
+        <v>20</v>
+      </c>
+      <c r="K28" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="G29" t="s">
         <v>17</v>
@@ -5092,30 +5074,33 @@
         <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s">
-        <v>115</v>
+        <v>20</v>
+      </c>
+      <c r="K29" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="E30" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="G30" t="s">
         <v>17</v>
@@ -5124,27 +5109,33 @@
         <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s">
-        <v>115</v>
+        <v>20</v>
+      </c>
+      <c r="K30" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
-        <v>165</v>
+        <v>82</v>
+      </c>
+      <c r="E31" t="s">
+        <v>83</v>
       </c>
       <c r="F31" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="G31" t="s">
         <v>17</v>
@@ -5153,30 +5144,33 @@
         <v>18</v>
       </c>
       <c r="I31" t="s">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="J31" t="s">
-        <v>115</v>
+        <v>20</v>
+      </c>
+      <c r="K31" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>167</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="F32" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="G32" t="s">
         <v>17</v>
@@ -5185,285 +5179,336 @@
         <v>18</v>
       </c>
       <c r="I32" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="J32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="K32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="F33" t="s">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="G33" t="s">
         <v>17</v>
       </c>
       <c r="H33" t="s">
-        <v>176</v>
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>94</v>
       </c>
       <c r="J33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="K33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>99</v>
+      </c>
+      <c r="J34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>104</v>
+      </c>
+      <c r="J35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" t="s">
         <v>83</v>
       </c>
-      <c r="F34" t="s">
-        <v>175</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" t="s">
-        <v>176</v>
-      </c>
-      <c r="J34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" t="s">
-        <v>179</v>
-      </c>
-      <c r="C35" t="s">
-        <v>173</v>
-      </c>
-      <c r="D35" t="s">
-        <v>180</v>
-      </c>
-      <c r="E35" t="s">
-        <v>83</v>
-      </c>
-      <c r="F35" t="s">
-        <v>175</v>
-      </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" t="s">
-        <v>176</v>
-      </c>
-      <c r="J35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>135</v>
-      </c>
-      <c r="B36" t="s">
-        <v>181</v>
-      </c>
-      <c r="C36" t="s">
-        <v>173</v>
-      </c>
-      <c r="D36" t="s">
-        <v>182</v>
-      </c>
-      <c r="E36" t="s">
-        <v>183</v>
-      </c>
       <c r="F36" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="G36" t="s">
         <v>17</v>
       </c>
       <c r="H36" t="s">
-        <v>176</v>
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>109</v>
       </c>
       <c r="J36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="K36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="E37" t="s">
         <v>83</v>
       </c>
       <c r="F37" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="G37" t="s">
         <v>17</v>
       </c>
       <c r="H37" t="s">
-        <v>176</v>
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>114</v>
       </c>
       <c r="J37" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>187</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="D38" t="s">
-        <v>188</v>
+        <v>119</v>
       </c>
       <c r="E38" t="s">
         <v>83</v>
       </c>
       <c r="F38" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="G38" t="s">
         <v>17</v>
       </c>
       <c r="H38" t="s">
-        <v>176</v>
+        <v>18</v>
+      </c>
+      <c r="I38" t="s">
+        <v>120</v>
       </c>
       <c r="J38" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>190</v>
+        <v>124</v>
+      </c>
+      <c r="E39" t="s">
+        <v>83</v>
       </c>
       <c r="F39" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="G39" t="s">
         <v>17</v>
       </c>
       <c r="H39" t="s">
-        <v>176</v>
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>125</v>
       </c>
       <c r="J39" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D40" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F40" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="G40" t="s">
         <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>176</v>
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>129</v>
       </c>
       <c r="J40" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="D41" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41" t="s">
-        <v>140</v>
+        <v>133</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
       </c>
       <c r="G41" t="s">
         <v>17</v>
       </c>
       <c r="H41" t="s">
-        <v>176</v>
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>134</v>
       </c>
       <c r="J41" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>135</v>
       </c>
       <c r="B42" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="C42" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="D42" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="F42" t="s">
         <v>140</v>
@@ -5472,27 +5517,30 @@
         <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>176</v>
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>141</v>
       </c>
       <c r="J42" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>135</v>
       </c>
       <c r="B43" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="C43" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="D43" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="F43" t="s">
         <v>140</v>
@@ -5501,27 +5549,30 @@
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>176</v>
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>145</v>
       </c>
       <c r="J43" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>135</v>
       </c>
       <c r="B44" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="D44" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="E44" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="F44" t="s">
         <v>140</v>
@@ -5530,24 +5581,27 @@
         <v>17</v>
       </c>
       <c r="H44" t="s">
-        <v>176</v>
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>149</v>
       </c>
       <c r="J44" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>135</v>
       </c>
       <c r="B45" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="C45" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="D45" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="F45" t="s">
         <v>140</v>
@@ -5556,27 +5610,30 @@
         <v>17</v>
       </c>
       <c r="H45" t="s">
-        <v>176</v>
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>153</v>
       </c>
       <c r="J45" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="C46" t="s">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="D46" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="E46" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="F46" t="s">
         <v>140</v>
@@ -5585,27 +5642,30 @@
         <v>17</v>
       </c>
       <c r="H46" t="s">
-        <v>176</v>
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>157</v>
       </c>
       <c r="J46" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="C47" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="D47" t="s">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="E47" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F47" t="s">
         <v>140</v>
@@ -5614,27 +5674,27 @@
         <v>17</v>
       </c>
       <c r="H47" t="s">
-        <v>176</v>
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>162</v>
       </c>
       <c r="J47" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>135</v>
       </c>
       <c r="B48" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="C48" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="D48" t="s">
-        <v>218</v>
-      </c>
-      <c r="E48" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F48" t="s">
         <v>140</v>
@@ -5643,10 +5703,13 @@
         <v>17</v>
       </c>
       <c r="H48" t="s">
-        <v>176</v>
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>166</v>
       </c>
       <c r="J48" t="s">
-        <v>200</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -5654,13 +5717,13 @@
         <v>135</v>
       </c>
       <c r="B49" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="C49" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="D49" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -5672,10 +5735,13 @@
         <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>176</v>
+        <v>18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>171</v>
       </c>
       <c r="J49" t="s">
-        <v>200</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -5683,19 +5749,19 @@
         <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="C50" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="D50" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="E50" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="F50" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="G50" t="s">
         <v>17</v>
@@ -5704,24 +5770,27 @@
         <v>176</v>
       </c>
       <c r="J50" t="s">
-        <v>200</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B51" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="C51" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="D51" t="s">
-        <v>228</v>
+        <v>178</v>
+      </c>
+      <c r="E51" t="s">
+        <v>83</v>
       </c>
       <c r="F51" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="G51" t="s">
         <v>17</v>
@@ -5730,24 +5799,24 @@
         <v>176</v>
       </c>
       <c r="J51" t="s">
-        <v>200</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B52" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="C52" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="D52" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="F52" t="s">
         <v>175</v>
@@ -5759,27 +5828,27 @@
         <v>176</v>
       </c>
       <c r="J52" t="s">
-        <v>200</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B53" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
       <c r="C53" t="s">
-        <v>233</v>
+        <v>173</v>
       </c>
       <c r="D53" t="s">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="F53" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="G53" t="s">
         <v>17</v>
@@ -5788,27 +5857,27 @@
         <v>176</v>
       </c>
       <c r="J53" t="s">
-        <v>200</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B54" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="C54" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="D54" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="F54" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="G54" t="s">
         <v>17</v>
@@ -5817,50 +5886,50 @@
         <v>176</v>
       </c>
       <c r="J54" t="s">
-        <v>200</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B55" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="C55" t="s">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="D55" t="s">
-        <v>240</v>
+        <v>188</v>
+      </c>
+      <c r="E55" t="s">
+        <v>83</v>
       </c>
       <c r="F55" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="G55" t="s">
         <v>17</v>
       </c>
       <c r="H55" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="J55" t="s">
-        <v>200</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B56" t="s">
-        <v>242</v>
+        <v>189</v>
       </c>
       <c r="C56" t="s">
-        <v>243</v>
+        <v>185</v>
       </c>
       <c r="D56" t="s">
-        <v>244</v>
-      </c>
-      <c r="E56" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="F56" t="s">
         <v>140</v>
@@ -5869,27 +5938,27 @@
         <v>17</v>
       </c>
       <c r="H56" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="J56" t="s">
-        <v>200</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B57" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="C57" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="D57" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="E57" t="s">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="F57" t="s">
         <v>140</v>
@@ -5898,24 +5967,27 @@
         <v>17</v>
       </c>
       <c r="H57" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="J57" t="s">
-        <v>200</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B58" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="C58" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="D58" t="s">
-        <v>250</v>
+        <v>196</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
       </c>
       <c r="F58" t="s">
         <v>140</v>
@@ -5924,36 +5996,36 @@
         <v>17</v>
       </c>
       <c r="H58" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="J58" t="s">
-        <v>200</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B59" t="s">
-        <v>251</v>
+        <v>197</v>
       </c>
       <c r="C59" t="s">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="D59" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="E59" t="s">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="F59" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="G59" t="s">
         <v>17</v>
       </c>
       <c r="H59" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="J59" t="s">
         <v>200</v>
@@ -5961,28 +6033,28 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B60" t="s">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="C60" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="D60" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="E60" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="F60" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="G60" t="s">
         <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="J60" t="s">
         <v>200</v>
@@ -5990,28 +6062,28 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B61" t="s">
-        <v>257</v>
+        <v>204</v>
       </c>
       <c r="C61" t="s">
-        <v>258</v>
+        <v>205</v>
       </c>
       <c r="D61" t="s">
-        <v>259</v>
+        <v>206</v>
       </c>
       <c r="E61" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="F61" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="G61" t="s">
         <v>17</v>
       </c>
       <c r="H61" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="J61" t="s">
         <v>200</v>
@@ -6019,19 +6091,16 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B62" t="s">
-        <v>260</v>
+        <v>207</v>
       </c>
       <c r="C62" t="s">
-        <v>261</v>
+        <v>208</v>
       </c>
       <c r="D62" t="s">
-        <v>262</v>
-      </c>
-      <c r="E62" t="s">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="F62" t="s">
         <v>140</v>
@@ -6040,27 +6109,27 @@
         <v>17</v>
       </c>
       <c r="H62" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="J62" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B63" t="s">
-        <v>264</v>
+        <v>210</v>
       </c>
       <c r="C63" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="D63" t="s">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="E63" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="F63" t="s">
         <v>140</v>
@@ -6069,27 +6138,27 @@
         <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="J63" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B64" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="C64" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="D64" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="E64" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="F64" t="s">
         <v>140</v>
@@ -6098,27 +6167,27 @@
         <v>17</v>
       </c>
       <c r="H64" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="J64" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B65" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="C65" t="s">
-        <v>271</v>
+        <v>217</v>
       </c>
       <c r="D65" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="E65" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="F65" t="s">
         <v>140</v>
@@ -6127,27 +6196,27 @@
         <v>17</v>
       </c>
       <c r="H65" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="J65" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B66" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="C66" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="D66" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="E66" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="F66" t="s">
         <v>140</v>
@@ -6156,27 +6225,27 @@
         <v>17</v>
       </c>
       <c r="H66" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="J66" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="C67" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="D67" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="E67" t="s">
-        <v>25</v>
+        <v>225</v>
       </c>
       <c r="F67" t="s">
         <v>140</v>
@@ -6185,10 +6254,10 @@
         <v>17</v>
       </c>
       <c r="H67" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="J67" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -6196,16 +6265,13 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="C68" t="s">
-        <v>280</v>
+        <v>227</v>
       </c>
       <c r="D68" t="s">
-        <v>281</v>
-      </c>
-      <c r="E68" t="s">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c r="F68" t="s">
         <v>140</v>
@@ -6214,10 +6280,10 @@
         <v>17</v>
       </c>
       <c r="H68" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="J68" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -6225,100 +6291,103 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>282</v>
+        <v>229</v>
       </c>
       <c r="C69" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="D69" t="s">
-        <v>284</v>
+        <v>231</v>
+      </c>
+      <c r="E69" t="s">
+        <v>46</v>
       </c>
       <c r="F69" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="G69" t="s">
         <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="J69" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="C70" t="s">
-        <v>286</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>287</v>
+        <v>233</v>
+      </c>
+      <c r="D70" t="s">
+        <v>234</v>
       </c>
       <c r="E70" t="s">
-        <v>288</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="F70" t="s">
+        <v>175</v>
       </c>
       <c r="G70" t="s">
         <v>17</v>
       </c>
       <c r="H70" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="J70" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="C71" t="s">
-        <v>291</v>
+        <v>236</v>
       </c>
       <c r="D71" t="s">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c r="E71" t="s">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="G71" t="s">
         <v>17</v>
       </c>
       <c r="H71" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="J71" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>293</v>
+        <v>238</v>
       </c>
       <c r="C72" t="s">
-        <v>294</v>
+        <v>239</v>
       </c>
       <c r="D72" t="s">
-        <v>295</v>
+        <v>240</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="G72" t="s">
         <v>17</v>
@@ -6327,24 +6396,24 @@
         <v>241</v>
       </c>
       <c r="J72" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
       <c r="C73" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="D73" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="E73" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="F73" t="s">
         <v>140</v>
@@ -6356,24 +6425,24 @@
         <v>241</v>
       </c>
       <c r="J73" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="C74" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="D74" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="E74" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="F74" t="s">
         <v>140</v>
@@ -6385,24 +6454,21 @@
         <v>241</v>
       </c>
       <c r="J74" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="C75" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="D75" t="s">
-        <v>304</v>
-      </c>
-      <c r="E75" t="s">
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="F75" t="s">
         <v>140</v>
@@ -6414,24 +6480,27 @@
         <v>241</v>
       </c>
       <c r="J75" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="C76" t="s">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="D76" t="s">
-        <v>307</v>
+        <v>253</v>
+      </c>
+      <c r="E76" t="s">
+        <v>170</v>
       </c>
       <c r="F76" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="G76" t="s">
         <v>17</v>
@@ -6440,82 +6509,82 @@
         <v>241</v>
       </c>
       <c r="J76" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>308</v>
+        <v>254</v>
       </c>
       <c r="C77" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="D77" t="s">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="E77" t="s">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="F77" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="G77" t="s">
         <v>17</v>
       </c>
       <c r="H77" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="J77" t="s">
-        <v>312</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>313</v>
+        <v>257</v>
       </c>
       <c r="C78" t="s">
-        <v>314</v>
+        <v>258</v>
       </c>
       <c r="D78" t="s">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="E78" t="s">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="F78" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="G78" t="s">
         <v>17</v>
       </c>
       <c r="H78" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="J78" t="s">
-        <v>312</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>316</v>
+        <v>260</v>
       </c>
       <c r="C79" t="s">
-        <v>317</v>
+        <v>261</v>
       </c>
       <c r="D79" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="E79" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="F79" t="s">
         <v>140</v>
@@ -6524,27 +6593,27 @@
         <v>17</v>
       </c>
       <c r="H79" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="J79" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="C80" t="s">
-        <v>320</v>
+        <v>265</v>
       </c>
       <c r="D80" t="s">
-        <v>321</v>
+        <v>266</v>
       </c>
       <c r="E80" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="F80" t="s">
         <v>140</v>
@@ -6553,24 +6622,24 @@
         <v>17</v>
       </c>
       <c r="H80" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="J80" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>322</v>
+        <v>267</v>
       </c>
       <c r="C81" t="s">
-        <v>323</v>
+        <v>268</v>
       </c>
       <c r="D81" t="s">
-        <v>324</v>
+        <v>269</v>
       </c>
       <c r="E81" t="s">
         <v>83</v>
@@ -6582,27 +6651,27 @@
         <v>17</v>
       </c>
       <c r="H81" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="J81" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="C82" t="s">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="D82" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="E82" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="F82" t="s">
         <v>140</v>
@@ -6611,27 +6680,27 @@
         <v>17</v>
       </c>
       <c r="H82" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="J82" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="C83" t="s">
-        <v>329</v>
+        <v>274</v>
       </c>
       <c r="D83" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="E83" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F83" t="s">
         <v>140</v>
@@ -6640,27 +6709,27 @@
         <v>17</v>
       </c>
       <c r="H83" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="J83" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="405" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="C84" t="s">
-        <v>332</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>333</v>
+        <v>277</v>
+      </c>
+      <c r="D84" t="s">
+        <v>278</v>
       </c>
       <c r="E84" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F84" t="s">
         <v>140</v>
@@ -6669,27 +6738,27 @@
         <v>17</v>
       </c>
       <c r="H84" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="J84" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="C85" t="s">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="D85" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="E85" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F85" t="s">
         <v>140</v>
@@ -6698,27 +6767,24 @@
         <v>17</v>
       </c>
       <c r="H85" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="J85" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="C86" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="D86" t="s">
-        <v>339</v>
-      </c>
-      <c r="E86" t="s">
-        <v>46</v>
+        <v>284</v>
       </c>
       <c r="F86" t="s">
         <v>140</v>
@@ -6727,39 +6793,39 @@
         <v>17</v>
       </c>
       <c r="H86" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="J86" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="C87" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>342</v>
+        <v>287</v>
       </c>
       <c r="E87" t="s">
-        <v>46</v>
-      </c>
-      <c r="F87" t="s">
-        <v>140</v>
+        <v>288</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
       </c>
       <c r="G87" t="s">
         <v>17</v>
       </c>
       <c r="H87" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="J87" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -6767,16 +6833,16 @@
         <v>289</v>
       </c>
       <c r="B88" t="s">
-        <v>343</v>
+        <v>290</v>
       </c>
       <c r="C88" t="s">
-        <v>344</v>
+        <v>291</v>
       </c>
       <c r="D88" t="s">
-        <v>345</v>
+        <v>292</v>
       </c>
       <c r="E88" t="s">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="F88" t="s">
         <v>140</v>
@@ -6785,10 +6851,10 @@
         <v>17</v>
       </c>
       <c r="H88" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="J88" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -6796,16 +6862,13 @@
         <v>289</v>
       </c>
       <c r="B89" t="s">
-        <v>346</v>
+        <v>293</v>
       </c>
       <c r="C89" t="s">
-        <v>347</v>
+        <v>294</v>
       </c>
       <c r="D89" t="s">
-        <v>348</v>
-      </c>
-      <c r="E89" t="s">
-        <v>46</v>
+        <v>295</v>
       </c>
       <c r="F89" t="s">
         <v>140</v>
@@ -6814,10 +6877,10 @@
         <v>17</v>
       </c>
       <c r="H89" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="J89" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -6825,16 +6888,16 @@
         <v>289</v>
       </c>
       <c r="B90" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="C90" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
       <c r="D90" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="E90" t="s">
-        <v>25</v>
+        <v>225</v>
       </c>
       <c r="F90" t="s">
         <v>140</v>
@@ -6843,10 +6906,10 @@
         <v>17</v>
       </c>
       <c r="H90" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="J90" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -6854,16 +6917,16 @@
         <v>289</v>
       </c>
       <c r="B91" t="s">
-        <v>352</v>
+        <v>299</v>
       </c>
       <c r="C91" t="s">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="D91" t="s">
-        <v>354</v>
+        <v>301</v>
       </c>
       <c r="E91" t="s">
-        <v>183</v>
+        <v>46</v>
       </c>
       <c r="F91" t="s">
         <v>140</v>
@@ -6872,10 +6935,10 @@
         <v>17</v>
       </c>
       <c r="H91" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="J91" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -6883,16 +6946,16 @@
         <v>289</v>
       </c>
       <c r="B92" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="C92" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
       <c r="D92" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="E92" t="s">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="F92" t="s">
         <v>140</v>
@@ -6901,10 +6964,10 @@
         <v>17</v>
       </c>
       <c r="H92" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="J92" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -6912,16 +6975,13 @@
         <v>289</v>
       </c>
       <c r="B93" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="C93" t="s">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="D93" t="s">
-        <v>360</v>
-      </c>
-      <c r="E93" t="s">
-        <v>46</v>
+        <v>307</v>
       </c>
       <c r="F93" t="s">
         <v>140</v>
@@ -6930,10 +6990,10 @@
         <v>17</v>
       </c>
       <c r="H93" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="J93" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -6941,16 +7001,16 @@
         <v>289</v>
       </c>
       <c r="B94" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="C94" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
       <c r="D94" t="s">
-        <v>363</v>
+        <v>310</v>
       </c>
       <c r="E94" t="s">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="F94" t="s">
         <v>140</v>
@@ -6970,19 +7030,19 @@
         <v>289</v>
       </c>
       <c r="B95" t="s">
-        <v>364</v>
+        <v>313</v>
       </c>
       <c r="C95" t="s">
-        <v>365</v>
+        <v>314</v>
       </c>
       <c r="D95" t="s">
-        <v>366</v>
+        <v>315</v>
       </c>
       <c r="E95" t="s">
-        <v>288</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="F95" t="s">
+        <v>140</v>
       </c>
       <c r="G95" t="s">
         <v>17</v>
@@ -6996,19 +7056,19 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="B96" t="s">
-        <v>368</v>
+        <v>316</v>
       </c>
       <c r="C96" t="s">
-        <v>369</v>
+        <v>317</v>
       </c>
       <c r="D96" t="s">
-        <v>370</v>
+        <v>318</v>
       </c>
       <c r="E96" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
         <v>140</v>
@@ -7020,24 +7080,24 @@
         <v>311</v>
       </c>
       <c r="J96" t="s">
-        <v>115</v>
+        <v>312</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="B97" t="s">
-        <v>371</v>
+        <v>319</v>
       </c>
       <c r="C97" t="s">
-        <v>372</v>
+        <v>320</v>
       </c>
       <c r="D97" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="E97" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="F97" t="s">
         <v>140</v>
@@ -7049,24 +7109,24 @@
         <v>311</v>
       </c>
       <c r="J97" t="s">
-        <v>115</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="B98" t="s">
-        <v>374</v>
+        <v>322</v>
       </c>
       <c r="C98" t="s">
-        <v>375</v>
+        <v>323</v>
       </c>
       <c r="D98" t="s">
-        <v>376</v>
+        <v>324</v>
       </c>
       <c r="E98" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="F98" t="s">
         <v>140</v>
@@ -7078,24 +7138,24 @@
         <v>311</v>
       </c>
       <c r="J98" t="s">
-        <v>115</v>
+        <v>312</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="B99" t="s">
-        <v>377</v>
+        <v>325</v>
       </c>
       <c r="C99" t="s">
-        <v>378</v>
+        <v>326</v>
       </c>
       <c r="D99" t="s">
-        <v>379</v>
+        <v>327</v>
       </c>
       <c r="E99" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="F99" t="s">
         <v>140</v>
@@ -7107,21 +7167,21 @@
         <v>311</v>
       </c>
       <c r="J99" t="s">
-        <v>115</v>
+        <v>312</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="B100" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
       <c r="C100" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
       <c r="D100" t="s">
-        <v>382</v>
+        <v>330</v>
       </c>
       <c r="E100" t="s">
         <v>46</v>
@@ -7136,24 +7196,24 @@
         <v>311</v>
       </c>
       <c r="J100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="B101" t="s">
-        <v>383</v>
+        <v>331</v>
       </c>
       <c r="C101" t="s">
-        <v>384</v>
-      </c>
-      <c r="D101" t="s">
-        <v>385</v>
+        <v>332</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="E101" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="F101" t="s">
         <v>140</v>
@@ -7165,21 +7225,21 @@
         <v>311</v>
       </c>
       <c r="J101" t="s">
-        <v>115</v>
+        <v>312</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="B102" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="C102" t="s">
-        <v>387</v>
+        <v>335</v>
       </c>
       <c r="D102" t="s">
-        <v>259</v>
+        <v>336</v>
       </c>
       <c r="E102" t="s">
         <v>46</v>
@@ -7194,24 +7254,24 @@
         <v>311</v>
       </c>
       <c r="J102" t="s">
-        <v>115</v>
+        <v>312</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="B103" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="C103" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="D103" t="s">
-        <v>390</v>
+        <v>339</v>
       </c>
       <c r="E103" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="F103" t="s">
         <v>140</v>
@@ -7223,24 +7283,24 @@
         <v>311</v>
       </c>
       <c r="J103" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="B104" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="C104" t="s">
-        <v>392</v>
-      </c>
-      <c r="D104" t="s">
-        <v>393</v>
+        <v>341</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="E104" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="F104" t="s">
         <v>140</v>
@@ -7252,24 +7312,24 @@
         <v>311</v>
       </c>
       <c r="J104" t="s">
-        <v>115</v>
+        <v>312</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="B105" t="s">
-        <v>394</v>
+        <v>343</v>
       </c>
       <c r="C105" t="s">
-        <v>395</v>
+        <v>344</v>
       </c>
       <c r="D105" t="s">
-        <v>396</v>
+        <v>345</v>
       </c>
       <c r="E105" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F105" t="s">
         <v>140</v>
@@ -7281,24 +7341,24 @@
         <v>311</v>
       </c>
       <c r="J105" t="s">
-        <v>115</v>
+        <v>312</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="B106" t="s">
-        <v>397</v>
+        <v>346</v>
       </c>
       <c r="C106" t="s">
-        <v>398</v>
+        <v>347</v>
       </c>
       <c r="D106" t="s">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="E106" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F106" t="s">
         <v>140</v>
@@ -7310,21 +7370,21 @@
         <v>311</v>
       </c>
       <c r="J106" t="s">
-        <v>115</v>
+        <v>312</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="B107" t="s">
-        <v>400</v>
+        <v>349</v>
       </c>
       <c r="C107" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="D107" t="s">
-        <v>402</v>
+        <v>351</v>
       </c>
       <c r="E107" t="s">
         <v>25</v>
@@ -7339,24 +7399,24 @@
         <v>311</v>
       </c>
       <c r="J107" t="s">
-        <v>115</v>
+        <v>312</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="B108" t="s">
-        <v>403</v>
+        <v>352</v>
       </c>
       <c r="C108" t="s">
-        <v>404</v>
+        <v>353</v>
       </c>
       <c r="D108" t="s">
-        <v>405</v>
+        <v>354</v>
       </c>
       <c r="E108" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="F108" t="s">
         <v>140</v>
@@ -7368,24 +7428,24 @@
         <v>311</v>
       </c>
       <c r="J108" t="s">
-        <v>115</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="B109" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="C109" t="s">
-        <v>407</v>
+        <v>356</v>
       </c>
       <c r="D109" t="s">
-        <v>408</v>
+        <v>357</v>
       </c>
       <c r="E109" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F109" t="s">
         <v>140</v>
@@ -7397,24 +7457,24 @@
         <v>311</v>
       </c>
       <c r="J109" t="s">
-        <v>115</v>
+        <v>312</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="B110" t="s">
-        <v>409</v>
+        <v>358</v>
       </c>
       <c r="C110" t="s">
-        <v>410</v>
+        <v>359</v>
       </c>
       <c r="D110" t="s">
-        <v>411</v>
+        <v>360</v>
       </c>
       <c r="E110" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F110" t="s">
         <v>140</v>
@@ -7426,24 +7486,24 @@
         <v>311</v>
       </c>
       <c r="J110" t="s">
-        <v>115</v>
+        <v>312</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="B111" t="s">
-        <v>412</v>
+        <v>361</v>
       </c>
       <c r="C111" t="s">
-        <v>413</v>
+        <v>362</v>
       </c>
       <c r="D111" t="s">
-        <v>414</v>
+        <v>363</v>
       </c>
       <c r="E111" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="F111" t="s">
         <v>140</v>
@@ -7455,27 +7515,27 @@
         <v>311</v>
       </c>
       <c r="J111" t="s">
-        <v>115</v>
+        <v>312</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="B112" t="s">
-        <v>415</v>
+        <v>364</v>
       </c>
       <c r="C112" t="s">
-        <v>416</v>
+        <v>365</v>
       </c>
       <c r="D112" t="s">
-        <v>417</v>
+        <v>366</v>
       </c>
       <c r="E112" t="s">
-        <v>83</v>
-      </c>
-      <c r="F112" t="s">
-        <v>140</v>
+        <v>288</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
       </c>
       <c r="G112" t="s">
         <v>17</v>
@@ -7484,7 +7544,7 @@
         <v>311</v>
       </c>
       <c r="J112" t="s">
-        <v>115</v>
+        <v>312</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -7492,16 +7552,16 @@
         <v>367</v>
       </c>
       <c r="B113" t="s">
-        <v>418</v>
+        <v>368</v>
       </c>
       <c r="C113" t="s">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="D113" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="E113" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="F113" t="s">
         <v>140</v>
@@ -7521,13 +7581,13 @@
         <v>367</v>
       </c>
       <c r="B114" t="s">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="C114" t="s">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="D114" t="s">
-        <v>423</v>
+        <v>373</v>
       </c>
       <c r="E114" t="s">
         <v>170</v>
@@ -7550,13 +7610,16 @@
         <v>367</v>
       </c>
       <c r="B115" t="s">
-        <v>424</v>
+        <v>374</v>
       </c>
       <c r="C115" t="s">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="D115" t="s">
-        <v>426</v>
+        <v>376</v>
+      </c>
+      <c r="E115" t="s">
+        <v>170</v>
       </c>
       <c r="F115" t="s">
         <v>140</v>
@@ -7576,13 +7639,13 @@
         <v>367</v>
       </c>
       <c r="B116" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="C116" t="s">
-        <v>263</v>
+        <v>378</v>
       </c>
       <c r="D116" t="s">
-        <v>428</v>
+        <v>379</v>
       </c>
       <c r="E116" t="s">
         <v>46</v>
@@ -7605,13 +7668,13 @@
         <v>367</v>
       </c>
       <c r="B117" t="s">
-        <v>429</v>
+        <v>380</v>
       </c>
       <c r="C117" t="s">
-        <v>430</v>
+        <v>381</v>
       </c>
       <c r="D117" t="s">
-        <v>431</v>
+        <v>382</v>
       </c>
       <c r="E117" t="s">
         <v>46</v>
@@ -7634,16 +7697,16 @@
         <v>367</v>
       </c>
       <c r="B118" t="s">
-        <v>432</v>
+        <v>383</v>
       </c>
       <c r="C118" t="s">
-        <v>433</v>
+        <v>384</v>
       </c>
       <c r="D118" t="s">
-        <v>434</v>
+        <v>385</v>
       </c>
       <c r="E118" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="F118" t="s">
         <v>140</v>
@@ -7663,16 +7726,16 @@
         <v>367</v>
       </c>
       <c r="B119" t="s">
-        <v>435</v>
+        <v>386</v>
       </c>
       <c r="C119" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
       <c r="D119" t="s">
-        <v>437</v>
+        <v>259</v>
       </c>
       <c r="E119" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="F119" t="s">
         <v>140</v>
@@ -7692,16 +7755,16 @@
         <v>367</v>
       </c>
       <c r="B120" t="s">
-        <v>438</v>
+        <v>388</v>
       </c>
       <c r="C120" t="s">
-        <v>439</v>
+        <v>389</v>
       </c>
       <c r="D120" t="s">
-        <v>440</v>
+        <v>390</v>
       </c>
       <c r="E120" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="F120" t="s">
         <v>140</v>
@@ -7721,16 +7784,16 @@
         <v>367</v>
       </c>
       <c r="B121" t="s">
-        <v>441</v>
+        <v>391</v>
       </c>
       <c r="C121" t="s">
-        <v>442</v>
+        <v>392</v>
       </c>
       <c r="D121" t="s">
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="E121" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="F121" t="s">
         <v>140</v>
@@ -7747,19 +7810,19 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>444</v>
+        <v>367</v>
       </c>
       <c r="B122" t="s">
-        <v>445</v>
+        <v>394</v>
       </c>
       <c r="C122" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="D122" t="s">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="E122" t="s">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="F122" t="s">
         <v>140</v>
@@ -7776,19 +7839,19 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>448</v>
+        <v>367</v>
       </c>
       <c r="B123" t="s">
-        <v>449</v>
+        <v>397</v>
       </c>
       <c r="C123" t="s">
-        <v>450</v>
+        <v>398</v>
       </c>
       <c r="D123" t="s">
-        <v>451</v>
+        <v>399</v>
       </c>
       <c r="E123" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="F123" t="s">
         <v>140</v>
@@ -7805,19 +7868,19 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>452</v>
+        <v>367</v>
       </c>
       <c r="B124" t="s">
-        <v>453</v>
+        <v>400</v>
       </c>
       <c r="C124" t="s">
-        <v>454</v>
+        <v>401</v>
       </c>
       <c r="D124" t="s">
-        <v>455</v>
+        <v>402</v>
       </c>
       <c r="E124" t="s">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="F124" t="s">
         <v>140</v>
@@ -7834,19 +7897,19 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>456</v>
+        <v>367</v>
       </c>
       <c r="B125" t="s">
-        <v>457</v>
+        <v>403</v>
       </c>
       <c r="C125" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="D125" t="s">
-        <v>458</v>
+        <v>405</v>
       </c>
       <c r="E125" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F125" t="s">
         <v>140</v>
@@ -7863,19 +7926,19 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>459</v>
+        <v>367</v>
       </c>
       <c r="B126" t="s">
-        <v>460</v>
+        <v>406</v>
       </c>
       <c r="C126" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="D126" t="s">
-        <v>461</v>
+        <v>408</v>
       </c>
       <c r="E126" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F126" t="s">
         <v>140</v>
@@ -7892,19 +7955,19 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>462</v>
+        <v>367</v>
       </c>
       <c r="B127" t="s">
-        <v>463</v>
+        <v>409</v>
       </c>
       <c r="C127" t="s">
-        <v>464</v>
+        <v>410</v>
       </c>
       <c r="D127" t="s">
-        <v>465</v>
+        <v>411</v>
       </c>
       <c r="E127" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F127" t="s">
         <v>140</v>
@@ -7921,19 +7984,19 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>466</v>
+        <v>367</v>
       </c>
       <c r="B128" t="s">
-        <v>467</v>
+        <v>412</v>
       </c>
       <c r="C128" t="s">
-        <v>468</v>
+        <v>413</v>
       </c>
       <c r="D128" t="s">
-        <v>469</v>
+        <v>414</v>
       </c>
       <c r="E128" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="F128" t="s">
         <v>140</v>
@@ -7950,16 +8013,16 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>470</v>
+        <v>367</v>
       </c>
       <c r="B129" t="s">
-        <v>471</v>
+        <v>415</v>
       </c>
       <c r="C129" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="D129" t="s">
-        <v>472</v>
+        <v>417</v>
       </c>
       <c r="E129" t="s">
         <v>83</v>
@@ -7979,16 +8042,16 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>473</v>
+        <v>367</v>
       </c>
       <c r="B130" t="s">
-        <v>474</v>
+        <v>418</v>
       </c>
       <c r="C130" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="D130" t="s">
-        <v>475</v>
+        <v>420</v>
       </c>
       <c r="E130" t="s">
         <v>83</v>
@@ -8008,16 +8071,19 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>476</v>
+        <v>367</v>
       </c>
       <c r="B131" t="s">
-        <v>477</v>
+        <v>421</v>
       </c>
       <c r="C131" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="D131" t="s">
-        <v>478</v>
+        <v>423</v>
+      </c>
+      <c r="E131" t="s">
+        <v>170</v>
       </c>
       <c r="F131" t="s">
         <v>140</v>
@@ -8034,19 +8100,16 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>479</v>
+        <v>367</v>
       </c>
       <c r="B132" t="s">
-        <v>480</v>
+        <v>424</v>
       </c>
       <c r="C132" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="D132" t="s">
-        <v>481</v>
-      </c>
-      <c r="E132" t="s">
-        <v>25</v>
+        <v>426</v>
       </c>
       <c r="F132" t="s">
         <v>140</v>
@@ -8063,19 +8126,19 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>482</v>
+        <v>367</v>
       </c>
       <c r="B133" t="s">
-        <v>483</v>
+        <v>427</v>
       </c>
       <c r="C133" t="s">
-        <v>484</v>
+        <v>263</v>
       </c>
       <c r="D133" t="s">
-        <v>485</v>
+        <v>428</v>
       </c>
       <c r="E133" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F133" t="s">
         <v>140</v>
@@ -8092,19 +8155,19 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>486</v>
+        <v>367</v>
       </c>
       <c r="B134" t="s">
-        <v>487</v>
+        <v>429</v>
       </c>
       <c r="C134" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="D134" t="s">
-        <v>488</v>
+        <v>431</v>
       </c>
       <c r="E134" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F134" t="s">
         <v>140</v>
@@ -8121,19 +8184,19 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>489</v>
+        <v>367</v>
       </c>
       <c r="B135" t="s">
-        <v>490</v>
+        <v>432</v>
       </c>
       <c r="C135" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="D135" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="E135" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F135" t="s">
         <v>140</v>
@@ -8150,19 +8213,19 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>491</v>
+        <v>367</v>
       </c>
       <c r="B136" t="s">
-        <v>492</v>
+        <v>435</v>
       </c>
       <c r="C136" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="D136" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="E136" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="F136" t="s">
         <v>140</v>
@@ -8179,19 +8242,19 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>493</v>
+        <v>367</v>
       </c>
       <c r="B137" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="C137" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="D137" t="s">
-        <v>495</v>
+        <v>440</v>
       </c>
       <c r="E137" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="F137" t="s">
         <v>140</v>
@@ -8208,19 +8271,19 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>496</v>
+        <v>367</v>
       </c>
       <c r="B138" t="s">
-        <v>497</v>
+        <v>441</v>
       </c>
       <c r="C138" t="s">
-        <v>263</v>
+        <v>442</v>
       </c>
       <c r="D138" t="s">
-        <v>498</v>
+        <v>443</v>
       </c>
       <c r="E138" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="F138" t="s">
         <v>140</v>
@@ -8237,22 +8300,22 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>499</v>
+        <v>444</v>
       </c>
       <c r="B139" t="s">
-        <v>500</v>
+        <v>445</v>
       </c>
       <c r="C139" t="s">
-        <v>501</v>
+        <v>446</v>
       </c>
       <c r="D139" t="s">
-        <v>502</v>
+        <v>447</v>
       </c>
       <c r="E139" t="s">
-        <v>288</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="F139" t="s">
+        <v>140</v>
       </c>
       <c r="G139" t="s">
         <v>17</v>
@@ -8266,19 +8329,19 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>499</v>
+        <v>448</v>
       </c>
       <c r="B140" t="s">
-        <v>503</v>
+        <v>449</v>
       </c>
       <c r="C140" t="s">
-        <v>504</v>
+        <v>450</v>
       </c>
       <c r="D140" t="s">
-        <v>505</v>
+        <v>451</v>
       </c>
       <c r="E140" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F140" t="s">
         <v>140</v>
@@ -8295,16 +8358,16 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>499</v>
+        <v>452</v>
       </c>
       <c r="B141" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="C141" t="s">
-        <v>507</v>
+        <v>454</v>
       </c>
       <c r="D141" t="s">
-        <v>508</v>
+        <v>455</v>
       </c>
       <c r="E141" t="s">
         <v>170</v>
@@ -8324,19 +8387,19 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>499</v>
+        <v>456</v>
       </c>
       <c r="B142" t="s">
-        <v>509</v>
+        <v>457</v>
       </c>
       <c r="C142" t="s">
-        <v>510</v>
+        <v>378</v>
       </c>
       <c r="D142" t="s">
-        <v>511</v>
+        <v>458</v>
       </c>
       <c r="E142" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="F142" t="s">
         <v>140</v>
@@ -8353,19 +8416,19 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="B143" t="s">
-        <v>512</v>
+        <v>460</v>
       </c>
       <c r="C143" t="s">
-        <v>513</v>
+        <v>381</v>
       </c>
       <c r="D143" t="s">
-        <v>514</v>
+        <v>461</v>
       </c>
       <c r="E143" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="F143" t="s">
         <v>140</v>
@@ -8382,19 +8445,19 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>499</v>
+        <v>462</v>
       </c>
       <c r="B144" t="s">
-        <v>515</v>
+        <v>463</v>
       </c>
       <c r="C144" t="s">
-        <v>516</v>
+        <v>464</v>
       </c>
       <c r="D144" t="s">
-        <v>517</v>
+        <v>465</v>
       </c>
       <c r="E144" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="F144" t="s">
         <v>140</v>
@@ -8411,19 +8474,19 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>499</v>
+        <v>466</v>
       </c>
       <c r="B145" t="s">
-        <v>518</v>
+        <v>467</v>
       </c>
       <c r="C145" t="s">
-        <v>519</v>
+        <v>468</v>
       </c>
       <c r="D145" t="s">
-        <v>520</v>
+        <v>469</v>
       </c>
       <c r="E145" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="F145" t="s">
         <v>140</v>
@@ -8440,19 +8503,19 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="B146" t="s">
-        <v>521</v>
+        <v>471</v>
       </c>
       <c r="C146" t="s">
-        <v>519</v>
+        <v>389</v>
       </c>
       <c r="D146" t="s">
-        <v>522</v>
+        <v>472</v>
       </c>
       <c r="E146" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="F146" t="s">
         <v>140</v>
@@ -8469,19 +8532,19 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="B147" t="s">
-        <v>523</v>
+        <v>474</v>
       </c>
       <c r="C147" t="s">
-        <v>519</v>
+        <v>392</v>
       </c>
       <c r="D147" t="s">
-        <v>524</v>
+        <v>475</v>
       </c>
       <c r="E147" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="F147" t="s">
         <v>140</v>
@@ -8498,19 +8561,16 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="B148" t="s">
-        <v>525</v>
+        <v>477</v>
       </c>
       <c r="C148" t="s">
-        <v>526</v>
+        <v>395</v>
       </c>
       <c r="D148" t="s">
-        <v>527</v>
-      </c>
-      <c r="E148" t="s">
-        <v>46</v>
+        <v>478</v>
       </c>
       <c r="F148" t="s">
         <v>140</v>
@@ -8527,19 +8587,19 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="B149" t="s">
-        <v>528</v>
+        <v>480</v>
       </c>
       <c r="C149" t="s">
-        <v>529</v>
+        <v>398</v>
       </c>
       <c r="D149" t="s">
-        <v>530</v>
+        <v>481</v>
       </c>
       <c r="E149" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F149" t="s">
         <v>140</v>
@@ -8556,19 +8616,19 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="B150" t="s">
-        <v>531</v>
+        <v>483</v>
       </c>
       <c r="C150" t="s">
-        <v>532</v>
+        <v>484</v>
       </c>
       <c r="D150" t="s">
-        <v>533</v>
+        <v>485</v>
       </c>
       <c r="E150" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F150" t="s">
         <v>140</v>
@@ -8585,19 +8645,19 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="B151" t="s">
-        <v>534</v>
+        <v>487</v>
       </c>
       <c r="C151" t="s">
-        <v>535</v>
+        <v>404</v>
       </c>
       <c r="D151" t="s">
-        <v>536</v>
+        <v>488</v>
       </c>
       <c r="E151" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F151" t="s">
         <v>140</v>
@@ -8614,19 +8674,19 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B152" t="s">
-        <v>537</v>
+        <v>490</v>
       </c>
       <c r="C152" t="s">
-        <v>538</v>
+        <v>407</v>
       </c>
       <c r="D152" t="s">
-        <v>539</v>
+        <v>408</v>
       </c>
       <c r="E152" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="F152" t="s">
         <v>140</v>
@@ -8643,16 +8703,19 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B153" t="s">
-        <v>540</v>
+        <v>492</v>
       </c>
       <c r="C153" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D153" t="s">
-        <v>542</v>
+        <v>411</v>
+      </c>
+      <c r="E153" t="s">
+        <v>25</v>
       </c>
       <c r="F153" t="s">
         <v>140</v>
@@ -8669,16 +8732,16 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B154" t="s">
-        <v>543</v>
+        <v>494</v>
       </c>
       <c r="C154" t="s">
-        <v>544</v>
+        <v>413</v>
       </c>
       <c r="D154" t="s">
-        <v>196</v>
+        <v>495</v>
       </c>
       <c r="E154" t="s">
         <v>83</v>
@@ -8698,19 +8761,19 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B155" t="s">
-        <v>545</v>
+        <v>497</v>
       </c>
       <c r="C155" t="s">
-        <v>546</v>
+        <v>263</v>
       </c>
       <c r="D155" t="s">
-        <v>547</v>
+        <v>498</v>
       </c>
       <c r="E155" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="F155" t="s">
         <v>140</v>
@@ -8730,19 +8793,19 @@
         <v>499</v>
       </c>
       <c r="B156" t="s">
-        <v>548</v>
+        <v>500</v>
       </c>
       <c r="C156" t="s">
-        <v>549</v>
+        <v>501</v>
       </c>
       <c r="D156" t="s">
-        <v>550</v>
+        <v>502</v>
       </c>
       <c r="E156" t="s">
-        <v>25</v>
-      </c>
-      <c r="F156" t="s">
-        <v>140</v>
+        <v>288</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
       </c>
       <c r="G156" t="s">
         <v>17</v>
@@ -8759,13 +8822,13 @@
         <v>499</v>
       </c>
       <c r="B157" t="s">
-        <v>551</v>
+        <v>503</v>
       </c>
       <c r="C157" t="s">
-        <v>552</v>
+        <v>504</v>
       </c>
       <c r="D157" t="s">
-        <v>553</v>
+        <v>505</v>
       </c>
       <c r="E157" t="s">
         <v>170</v>
@@ -8788,13 +8851,13 @@
         <v>499</v>
       </c>
       <c r="B158" t="s">
-        <v>554</v>
+        <v>506</v>
       </c>
       <c r="C158" t="s">
-        <v>555</v>
+        <v>507</v>
       </c>
       <c r="D158" t="s">
-        <v>209</v>
+        <v>508</v>
       </c>
       <c r="E158" t="s">
         <v>170</v>
@@ -8817,13 +8880,13 @@
         <v>499</v>
       </c>
       <c r="B159" t="s">
-        <v>556</v>
+        <v>509</v>
       </c>
       <c r="C159" t="s">
-        <v>422</v>
+        <v>510</v>
       </c>
       <c r="D159" t="s">
-        <v>557</v>
+        <v>511</v>
       </c>
       <c r="E159" t="s">
         <v>170</v>
@@ -8846,13 +8909,13 @@
         <v>499</v>
       </c>
       <c r="B160" t="s">
-        <v>558</v>
+        <v>512</v>
       </c>
       <c r="C160" t="s">
-        <v>559</v>
+        <v>513</v>
       </c>
       <c r="D160" t="s">
-        <v>560</v>
+        <v>514</v>
       </c>
       <c r="E160" t="s">
         <v>170</v>
@@ -8875,13 +8938,13 @@
         <v>499</v>
       </c>
       <c r="B161" t="s">
-        <v>561</v>
+        <v>515</v>
       </c>
       <c r="C161" t="s">
-        <v>562</v>
+        <v>516</v>
       </c>
       <c r="D161" t="s">
-        <v>563</v>
+        <v>517</v>
       </c>
       <c r="E161" t="s">
         <v>170</v>
@@ -8904,13 +8967,13 @@
         <v>499</v>
       </c>
       <c r="B162" t="s">
-        <v>564</v>
+        <v>518</v>
       </c>
       <c r="C162" t="s">
-        <v>565</v>
+        <v>519</v>
       </c>
       <c r="D162" t="s">
-        <v>566</v>
+        <v>520</v>
       </c>
       <c r="E162" t="s">
         <v>170</v>
@@ -8930,19 +8993,19 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>567</v>
+        <v>499</v>
       </c>
       <c r="B163" t="s">
-        <v>568</v>
+        <v>521</v>
       </c>
       <c r="C163" t="s">
-        <v>569</v>
+        <v>519</v>
       </c>
       <c r="D163" t="s">
-        <v>570</v>
+        <v>522</v>
       </c>
       <c r="E163" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="F163" t="s">
         <v>140</v>
@@ -8959,19 +9022,19 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>567</v>
+        <v>499</v>
       </c>
       <c r="B164" t="s">
-        <v>571</v>
+        <v>523</v>
       </c>
       <c r="C164" t="s">
-        <v>572</v>
+        <v>519</v>
       </c>
       <c r="D164" t="s">
-        <v>573</v>
+        <v>524</v>
       </c>
       <c r="E164" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="F164" t="s">
         <v>140</v>
@@ -8988,19 +9051,19 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>567</v>
+        <v>499</v>
       </c>
       <c r="B165" t="s">
-        <v>574</v>
+        <v>525</v>
       </c>
       <c r="C165" t="s">
-        <v>575</v>
+        <v>526</v>
       </c>
       <c r="D165" t="s">
-        <v>576</v>
+        <v>527</v>
       </c>
       <c r="E165" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="F165" t="s">
         <v>140</v>
@@ -9017,19 +9080,19 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>567</v>
+        <v>499</v>
       </c>
       <c r="B166" t="s">
-        <v>577</v>
+        <v>528</v>
       </c>
       <c r="C166" t="s">
-        <v>578</v>
+        <v>529</v>
       </c>
       <c r="D166" t="s">
-        <v>579</v>
+        <v>530</v>
       </c>
       <c r="E166" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="F166" t="s">
         <v>140</v>
@@ -9046,19 +9109,19 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>567</v>
+        <v>499</v>
       </c>
       <c r="B167" t="s">
-        <v>580</v>
+        <v>531</v>
       </c>
       <c r="C167" t="s">
-        <v>581</v>
+        <v>532</v>
       </c>
       <c r="D167" t="s">
-        <v>582</v>
+        <v>533</v>
       </c>
       <c r="E167" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="F167" t="s">
         <v>140</v>
@@ -9075,19 +9138,19 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>567</v>
+        <v>499</v>
       </c>
       <c r="B168" t="s">
-        <v>583</v>
+        <v>534</v>
       </c>
       <c r="C168" t="s">
-        <v>584</v>
+        <v>535</v>
       </c>
       <c r="D168" t="s">
-        <v>585</v>
+        <v>536</v>
       </c>
       <c r="E168" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="F168" t="s">
         <v>140</v>
@@ -9104,19 +9167,19 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>567</v>
+        <v>499</v>
       </c>
       <c r="B169" t="s">
-        <v>586</v>
+        <v>537</v>
       </c>
       <c r="C169" t="s">
-        <v>587</v>
+        <v>538</v>
       </c>
       <c r="D169" t="s">
-        <v>588</v>
+        <v>539</v>
       </c>
       <c r="E169" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="F169" t="s">
         <v>140</v>
@@ -9133,19 +9196,16 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>567</v>
+        <v>499</v>
       </c>
       <c r="B170" t="s">
-        <v>589</v>
+        <v>540</v>
       </c>
       <c r="C170" t="s">
-        <v>590</v>
+        <v>541</v>
       </c>
       <c r="D170" t="s">
-        <v>591</v>
-      </c>
-      <c r="E170" t="s">
-        <v>46</v>
+        <v>542</v>
       </c>
       <c r="F170" t="s">
         <v>140</v>
@@ -9162,19 +9222,19 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>567</v>
+        <v>499</v>
       </c>
       <c r="B171" t="s">
-        <v>592</v>
+        <v>543</v>
       </c>
       <c r="C171" t="s">
-        <v>593</v>
+        <v>544</v>
       </c>
       <c r="D171" t="s">
-        <v>594</v>
+        <v>196</v>
       </c>
       <c r="E171" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="F171" t="s">
         <v>140</v>
@@ -9191,19 +9251,19 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>567</v>
+        <v>499</v>
       </c>
       <c r="B172" t="s">
-        <v>595</v>
+        <v>545</v>
       </c>
       <c r="C172" t="s">
-        <v>422</v>
+        <v>546</v>
       </c>
       <c r="D172" t="s">
-        <v>596</v>
+        <v>547</v>
       </c>
       <c r="E172" t="s">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="F172" t="s">
         <v>140</v>
@@ -9220,16 +9280,19 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>567</v>
+        <v>499</v>
       </c>
       <c r="B173" t="s">
-        <v>597</v>
+        <v>548</v>
       </c>
       <c r="C173" t="s">
-        <v>598</v>
+        <v>549</v>
       </c>
       <c r="D173" t="s">
-        <v>599</v>
+        <v>550</v>
+      </c>
+      <c r="E173" t="s">
+        <v>25</v>
       </c>
       <c r="F173" t="s">
         <v>140</v>
@@ -9246,19 +9309,19 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>567</v>
+        <v>499</v>
       </c>
       <c r="B174" t="s">
-        <v>600</v>
+        <v>551</v>
       </c>
       <c r="C174" t="s">
-        <v>601</v>
+        <v>552</v>
       </c>
       <c r="D174" t="s">
-        <v>602</v>
+        <v>553</v>
       </c>
       <c r="E174" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="F174" t="s">
         <v>140</v>
@@ -9275,19 +9338,19 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>567</v>
+        <v>499</v>
       </c>
       <c r="B175" t="s">
-        <v>603</v>
+        <v>554</v>
       </c>
       <c r="C175" t="s">
-        <v>604</v>
+        <v>555</v>
       </c>
       <c r="D175" t="s">
-        <v>605</v>
+        <v>209</v>
       </c>
       <c r="E175" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="F175" t="s">
         <v>140</v>
@@ -9304,19 +9367,19 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>567</v>
+        <v>499</v>
       </c>
       <c r="B176" t="s">
-        <v>606</v>
+        <v>556</v>
       </c>
       <c r="C176" t="s">
-        <v>607</v>
+        <v>422</v>
       </c>
       <c r="D176" t="s">
-        <v>608</v>
+        <v>557</v>
       </c>
       <c r="E176" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="F176" t="s">
         <v>140</v>
@@ -9333,19 +9396,19 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>567</v>
+        <v>499</v>
       </c>
       <c r="B177" t="s">
-        <v>609</v>
+        <v>558</v>
       </c>
       <c r="C177" t="s">
-        <v>610</v>
+        <v>559</v>
       </c>
       <c r="D177" t="s">
-        <v>611</v>
+        <v>560</v>
       </c>
       <c r="E177" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="F177" t="s">
         <v>140</v>
@@ -9362,19 +9425,19 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>567</v>
+        <v>499</v>
       </c>
       <c r="B178" t="s">
-        <v>612</v>
+        <v>561</v>
       </c>
       <c r="C178" t="s">
-        <v>613</v>
+        <v>562</v>
       </c>
       <c r="D178" t="s">
-        <v>614</v>
+        <v>563</v>
       </c>
       <c r="E178" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="F178" t="s">
         <v>140</v>
@@ -9391,19 +9454,19 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>567</v>
+        <v>499</v>
       </c>
       <c r="B179" t="s">
-        <v>615</v>
+        <v>564</v>
       </c>
       <c r="C179" t="s">
-        <v>616</v>
+        <v>565</v>
       </c>
       <c r="D179" t="s">
-        <v>617</v>
+        <v>566</v>
       </c>
       <c r="E179" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="F179" t="s">
         <v>140</v>
@@ -9423,16 +9486,16 @@
         <v>567</v>
       </c>
       <c r="B180" t="s">
-        <v>618</v>
+        <v>568</v>
       </c>
       <c r="C180" t="s">
-        <v>619</v>
+        <v>569</v>
       </c>
       <c r="D180" t="s">
-        <v>620</v>
+        <v>570</v>
       </c>
       <c r="E180" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="F180" t="s">
         <v>140</v>
@@ -9452,16 +9515,16 @@
         <v>567</v>
       </c>
       <c r="B181" t="s">
-        <v>621</v>
+        <v>571</v>
       </c>
       <c r="C181" t="s">
-        <v>622</v>
+        <v>572</v>
       </c>
       <c r="D181" t="s">
-        <v>623</v>
+        <v>573</v>
       </c>
       <c r="E181" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="F181" t="s">
         <v>140</v>
@@ -9476,24 +9539,24 @@
         <v>115</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>567</v>
       </c>
       <c r="B182" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="C182" t="s">
-        <v>625</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>626</v>
+        <v>575</v>
+      </c>
+      <c r="D182" t="s">
+        <v>576</v>
       </c>
       <c r="E182" t="s">
         <v>170</v>
       </c>
       <c r="F182" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="G182" t="s">
         <v>17</v>
@@ -9505,24 +9568,24 @@
         <v>115</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>567</v>
       </c>
       <c r="B183" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="C183" t="s">
-        <v>628</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>629</v>
+        <v>578</v>
+      </c>
+      <c r="D183" t="s">
+        <v>579</v>
       </c>
       <c r="E183" t="s">
         <v>170</v>
       </c>
       <c r="F183" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="G183" t="s">
         <v>17</v>
@@ -9534,24 +9597,24 @@
         <v>115</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>567</v>
       </c>
       <c r="B184" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="C184" t="s">
-        <v>631</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>632</v>
+        <v>581</v>
+      </c>
+      <c r="D184" t="s">
+        <v>582</v>
       </c>
       <c r="E184" t="s">
         <v>170</v>
       </c>
       <c r="F184" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="G184" t="s">
         <v>17</v>
@@ -9563,24 +9626,24 @@
         <v>115</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>567</v>
       </c>
       <c r="B185" t="s">
-        <v>633</v>
+        <v>583</v>
       </c>
       <c r="C185" t="s">
-        <v>634</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>635</v>
+        <v>584</v>
+      </c>
+      <c r="D185" t="s">
+        <v>585</v>
       </c>
       <c r="E185" t="s">
         <v>170</v>
       </c>
       <c r="F185" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="G185" t="s">
         <v>17</v>
@@ -9594,22 +9657,22 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>636</v>
+        <v>567</v>
       </c>
       <c r="B186" t="s">
-        <v>637</v>
+        <v>586</v>
       </c>
       <c r="C186" t="s">
-        <v>638</v>
+        <v>587</v>
       </c>
       <c r="D186" t="s">
-        <v>639</v>
+        <v>588</v>
       </c>
       <c r="E186" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="F186" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="G186" t="s">
         <v>17</v>
@@ -9623,22 +9686,22 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>636</v>
+        <v>567</v>
       </c>
       <c r="B187" t="s">
-        <v>640</v>
+        <v>589</v>
       </c>
       <c r="C187" t="s">
-        <v>638</v>
+        <v>590</v>
       </c>
       <c r="D187" t="s">
-        <v>641</v>
+        <v>591</v>
       </c>
       <c r="E187" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="F187" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="G187" t="s">
         <v>17</v>
@@ -9652,13 +9715,13 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>636</v>
+        <v>567</v>
       </c>
       <c r="B188" t="s">
-        <v>642</v>
+        <v>592</v>
       </c>
       <c r="C188" t="s">
-        <v>643</v>
+        <v>593</v>
       </c>
       <c r="D188" t="s">
         <v>594</v>
@@ -9667,7 +9730,7 @@
         <v>46</v>
       </c>
       <c r="F188" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="G188" t="s">
         <v>17</v>
@@ -9681,22 +9744,22 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>636</v>
+        <v>567</v>
       </c>
       <c r="B189" t="s">
-        <v>644</v>
+        <v>595</v>
       </c>
       <c r="C189" t="s">
-        <v>645</v>
+        <v>422</v>
       </c>
       <c r="D189" t="s">
-        <v>646</v>
+        <v>596</v>
       </c>
       <c r="E189" t="s">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="F189" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="G189" t="s">
         <v>17</v>
@@ -9710,20 +9773,17 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>636</v>
+        <v>567</v>
       </c>
       <c r="B190" t="s">
-        <v>647</v>
+        <v>597</v>
       </c>
       <c r="C190" t="s">
-        <v>645</v>
+        <v>598</v>
       </c>
       <c r="D190" t="s">
         <v>599</v>
       </c>
-      <c r="E190" t="s">
-        <v>46</v>
-      </c>
       <c r="F190" t="s">
         <v>140</v>
       </c>
@@ -9739,16 +9799,16 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>636</v>
+        <v>567</v>
       </c>
       <c r="B191" t="s">
-        <v>648</v>
+        <v>600</v>
       </c>
       <c r="C191" t="s">
-        <v>649</v>
+        <v>601</v>
       </c>
       <c r="D191" t="s">
-        <v>650</v>
+        <v>602</v>
       </c>
       <c r="E191" t="s">
         <v>46</v>
@@ -9768,16 +9828,16 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>636</v>
+        <v>567</v>
       </c>
       <c r="B192" t="s">
-        <v>651</v>
+        <v>603</v>
       </c>
       <c r="C192" t="s">
-        <v>652</v>
+        <v>604</v>
       </c>
       <c r="D192" t="s">
-        <v>653</v>
+        <v>605</v>
       </c>
       <c r="E192" t="s">
         <v>46</v>
@@ -9797,19 +9857,19 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>636</v>
+        <v>567</v>
       </c>
       <c r="B193" t="s">
-        <v>654</v>
+        <v>606</v>
       </c>
       <c r="C193" t="s">
-        <v>655</v>
+        <v>607</v>
       </c>
       <c r="D193" t="s">
-        <v>656</v>
+        <v>608</v>
       </c>
       <c r="E193" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="F193" t="s">
         <v>140</v>
@@ -9826,19 +9886,19 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>636</v>
+        <v>567</v>
       </c>
       <c r="B194" t="s">
-        <v>657</v>
+        <v>609</v>
       </c>
       <c r="C194" t="s">
-        <v>422</v>
+        <v>610</v>
       </c>
       <c r="D194" t="s">
-        <v>658</v>
+        <v>611</v>
       </c>
       <c r="E194" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="F194" t="s">
         <v>140</v>
@@ -9855,19 +9915,19 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>636</v>
+        <v>567</v>
       </c>
       <c r="B195" t="s">
-        <v>659</v>
+        <v>612</v>
       </c>
       <c r="C195" t="s">
-        <v>660</v>
+        <v>613</v>
       </c>
       <c r="D195" t="s">
-        <v>661</v>
+        <v>614</v>
       </c>
       <c r="E195" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="F195" t="s">
         <v>140</v>
@@ -9884,19 +9944,19 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>636</v>
+        <v>567</v>
       </c>
       <c r="B196" t="s">
-        <v>662</v>
+        <v>615</v>
       </c>
       <c r="C196" t="s">
-        <v>663</v>
+        <v>616</v>
       </c>
       <c r="D196" t="s">
-        <v>664</v>
+        <v>617</v>
       </c>
       <c r="E196" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="F196" t="s">
         <v>140</v>
@@ -9913,19 +9973,19 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>636</v>
+        <v>567</v>
       </c>
       <c r="B197" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="C197" t="s">
-        <v>663</v>
+        <v>619</v>
       </c>
       <c r="D197" t="s">
-        <v>666</v>
+        <v>620</v>
       </c>
       <c r="E197" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="F197" t="s">
         <v>140</v>
@@ -9942,16 +10002,16 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>636</v>
+        <v>567</v>
       </c>
       <c r="B198" t="s">
-        <v>667</v>
+        <v>621</v>
       </c>
       <c r="C198" t="s">
-        <v>668</v>
+        <v>622</v>
       </c>
       <c r="D198" t="s">
-        <v>669</v>
+        <v>623</v>
       </c>
       <c r="E198" t="s">
         <v>83</v>
@@ -9969,24 +10029,24 @@
         <v>115</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>636</v>
+        <v>567</v>
       </c>
       <c r="B199" t="s">
-        <v>670</v>
+        <v>624</v>
       </c>
       <c r="C199" t="s">
-        <v>671</v>
-      </c>
-      <c r="D199" t="s">
-        <v>672</v>
+        <v>625</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>626</v>
       </c>
       <c r="E199" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="F199" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="G199" t="s">
         <v>17</v>
@@ -9998,24 +10058,24 @@
         <v>115</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>636</v>
+        <v>567</v>
       </c>
       <c r="B200" t="s">
-        <v>673</v>
+        <v>627</v>
       </c>
       <c r="C200" t="s">
-        <v>674</v>
-      </c>
-      <c r="D200" t="s">
-        <v>675</v>
+        <v>628</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>629</v>
       </c>
       <c r="E200" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="F200" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="G200" t="s">
         <v>17</v>
@@ -10027,21 +10087,24 @@
         <v>115</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>636</v>
+        <v>567</v>
       </c>
       <c r="B201" t="s">
-        <v>676</v>
+        <v>630</v>
       </c>
       <c r="C201" t="s">
-        <v>677</v>
-      </c>
-      <c r="D201" t="s">
-        <v>678</v>
+        <v>631</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E201" t="s">
+        <v>170</v>
       </c>
       <c r="F201" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="G201" t="s">
         <v>17</v>
@@ -10053,24 +10116,24 @@
         <v>115</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>636</v>
+        <v>567</v>
       </c>
       <c r="B202" t="s">
-        <v>679</v>
+        <v>633</v>
       </c>
       <c r="C202" t="s">
-        <v>680</v>
-      </c>
-      <c r="D202" t="s">
-        <v>681</v>
+        <v>634</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>635</v>
       </c>
       <c r="E202" t="s">
         <v>170</v>
       </c>
       <c r="F202" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="G202" t="s">
         <v>17</v>
@@ -10087,19 +10150,19 @@
         <v>636</v>
       </c>
       <c r="B203" t="s">
-        <v>682</v>
+        <v>637</v>
       </c>
       <c r="C203" t="s">
-        <v>680</v>
+        <v>638</v>
       </c>
       <c r="D203" t="s">
-        <v>683</v>
+        <v>639</v>
       </c>
       <c r="E203" t="s">
         <v>170</v>
       </c>
       <c r="F203" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="G203" t="s">
         <v>17</v>
@@ -10116,19 +10179,19 @@
         <v>636</v>
       </c>
       <c r="B204" t="s">
-        <v>684</v>
+        <v>640</v>
       </c>
       <c r="C204" t="s">
-        <v>685</v>
+        <v>638</v>
       </c>
       <c r="D204" t="s">
-        <v>686</v>
+        <v>641</v>
       </c>
       <c r="E204" t="s">
         <v>170</v>
       </c>
       <c r="F204" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="G204" t="s">
         <v>17</v>
@@ -10145,19 +10208,19 @@
         <v>636</v>
       </c>
       <c r="B205" t="s">
-        <v>687</v>
+        <v>642</v>
       </c>
       <c r="C205" t="s">
-        <v>688</v>
+        <v>643</v>
       </c>
       <c r="D205" t="s">
-        <v>689</v>
+        <v>594</v>
       </c>
       <c r="E205" t="s">
         <v>46</v>
       </c>
       <c r="F205" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="G205" t="s">
         <v>17</v>
@@ -10174,19 +10237,19 @@
         <v>636</v>
       </c>
       <c r="B206" t="s">
-        <v>690</v>
+        <v>644</v>
       </c>
       <c r="C206" t="s">
-        <v>691</v>
+        <v>645</v>
       </c>
       <c r="D206" t="s">
-        <v>692</v>
+        <v>646</v>
       </c>
       <c r="E206" t="s">
         <v>46</v>
       </c>
       <c r="F206" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="G206" t="s">
         <v>17</v>
@@ -10203,13 +10266,13 @@
         <v>636</v>
       </c>
       <c r="B207" t="s">
-        <v>693</v>
+        <v>647</v>
       </c>
       <c r="C207" t="s">
-        <v>694</v>
+        <v>645</v>
       </c>
       <c r="D207" t="s">
-        <v>695</v>
+        <v>599</v>
       </c>
       <c r="E207" t="s">
         <v>46</v>
@@ -10229,19 +10292,19 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>696</v>
+        <v>636</v>
       </c>
       <c r="B208" t="s">
-        <v>697</v>
+        <v>648</v>
       </c>
       <c r="C208" t="s">
-        <v>698</v>
+        <v>649</v>
       </c>
       <c r="D208" t="s">
-        <v>699</v>
+        <v>650</v>
       </c>
       <c r="E208" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="F208" t="s">
         <v>140</v>
@@ -10258,19 +10321,19 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>696</v>
+        <v>636</v>
       </c>
       <c r="B209" t="s">
-        <v>700</v>
+        <v>651</v>
       </c>
       <c r="C209" t="s">
-        <v>701</v>
+        <v>652</v>
       </c>
       <c r="D209" t="s">
-        <v>702</v>
+        <v>653</v>
       </c>
       <c r="E209" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="F209" t="s">
         <v>140</v>
@@ -10287,22 +10350,22 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>696</v>
+        <v>636</v>
       </c>
       <c r="B210" t="s">
-        <v>703</v>
+        <v>654</v>
       </c>
       <c r="C210" t="s">
-        <v>115</v>
+        <v>655</v>
       </c>
       <c r="D210" t="s">
-        <v>704</v>
+        <v>656</v>
       </c>
       <c r="E210" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="F210" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="G210" t="s">
         <v>17</v>
@@ -10316,22 +10379,22 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>696</v>
+        <v>636</v>
       </c>
       <c r="B211" t="s">
-        <v>705</v>
+        <v>657</v>
       </c>
       <c r="C211" t="s">
-        <v>706</v>
+        <v>422</v>
       </c>
       <c r="D211" t="s">
-        <v>707</v>
+        <v>658</v>
       </c>
       <c r="E211" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="F211" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="G211" t="s">
         <v>17</v>
@@ -10345,22 +10408,22 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>696</v>
+        <v>636</v>
       </c>
       <c r="B212" t="s">
-        <v>708</v>
+        <v>659</v>
       </c>
       <c r="C212" t="s">
-        <v>709</v>
+        <v>660</v>
       </c>
       <c r="D212" t="s">
-        <v>710</v>
+        <v>661</v>
       </c>
       <c r="E212" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="F212" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="G212" t="s">
         <v>17</v>
@@ -10374,22 +10437,22 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>696</v>
+        <v>636</v>
       </c>
       <c r="B213" t="s">
-        <v>711</v>
+        <v>662</v>
       </c>
       <c r="C213" t="s">
-        <v>706</v>
+        <v>663</v>
       </c>
       <c r="D213" t="s">
-        <v>712</v>
+        <v>664</v>
       </c>
       <c r="E213" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="F213" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="G213" t="s">
         <v>17</v>
@@ -10403,22 +10466,22 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>696</v>
+        <v>636</v>
       </c>
       <c r="B214" t="s">
-        <v>713</v>
+        <v>665</v>
       </c>
       <c r="C214" t="s">
-        <v>714</v>
+        <v>663</v>
       </c>
       <c r="D214" t="s">
-        <v>715</v>
+        <v>666</v>
       </c>
       <c r="E214" t="s">
         <v>46</v>
       </c>
       <c r="F214" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="G214" t="s">
         <v>17</v>
@@ -10432,22 +10495,22 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>696</v>
+        <v>636</v>
       </c>
       <c r="B215" t="s">
-        <v>716</v>
+        <v>667</v>
       </c>
       <c r="C215" t="s">
-        <v>717</v>
+        <v>668</v>
       </c>
       <c r="D215" t="s">
-        <v>718</v>
+        <v>669</v>
       </c>
       <c r="E215" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="F215" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="G215" t="s">
         <v>17</v>
@@ -10461,19 +10524,19 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>696</v>
+        <v>636</v>
       </c>
       <c r="B216" t="s">
-        <v>719</v>
+        <v>670</v>
       </c>
       <c r="C216" t="s">
-        <v>717</v>
+        <v>671</v>
       </c>
       <c r="D216" t="s">
-        <v>720</v>
+        <v>672</v>
       </c>
       <c r="E216" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="F216" t="s">
         <v>140</v>
@@ -10490,19 +10553,19 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>696</v>
+        <v>636</v>
       </c>
       <c r="B217" t="s">
-        <v>721</v>
+        <v>673</v>
       </c>
       <c r="C217" t="s">
-        <v>722</v>
+        <v>674</v>
       </c>
       <c r="D217" t="s">
-        <v>723</v>
+        <v>675</v>
       </c>
       <c r="E217" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F217" t="s">
         <v>140</v>
@@ -10519,19 +10582,16 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>696</v>
+        <v>636</v>
       </c>
       <c r="B218" t="s">
-        <v>724</v>
+        <v>676</v>
       </c>
       <c r="C218" t="s">
-        <v>725</v>
+        <v>677</v>
       </c>
       <c r="D218" t="s">
-        <v>726</v>
-      </c>
-      <c r="E218" t="s">
-        <v>225</v>
+        <v>678</v>
       </c>
       <c r="F218" t="s">
         <v>140</v>
@@ -10548,19 +10608,19 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>696</v>
+        <v>636</v>
       </c>
       <c r="B219" t="s">
-        <v>727</v>
+        <v>679</v>
       </c>
       <c r="C219" t="s">
-        <v>728</v>
+        <v>680</v>
       </c>
       <c r="D219" t="s">
-        <v>729</v>
+        <v>681</v>
       </c>
       <c r="E219" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="F219" t="s">
         <v>140</v>
@@ -10577,19 +10637,19 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>696</v>
+        <v>636</v>
       </c>
       <c r="B220" t="s">
-        <v>730</v>
+        <v>682</v>
       </c>
       <c r="C220" t="s">
-        <v>731</v>
+        <v>680</v>
       </c>
       <c r="D220" t="s">
-        <v>732</v>
+        <v>683</v>
       </c>
       <c r="E220" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="F220" t="s">
         <v>140</v>
@@ -10606,19 +10666,19 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>696</v>
+        <v>636</v>
       </c>
       <c r="B221" t="s">
-        <v>733</v>
+        <v>684</v>
       </c>
       <c r="C221" t="s">
-        <v>645</v>
+        <v>685</v>
       </c>
       <c r="D221" t="s">
-        <v>734</v>
+        <v>686</v>
       </c>
       <c r="E221" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="F221" t="s">
         <v>140</v>
@@ -10635,19 +10695,19 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>696</v>
+        <v>636</v>
       </c>
       <c r="B222" t="s">
-        <v>735</v>
+        <v>687</v>
       </c>
       <c r="C222" t="s">
-        <v>736</v>
+        <v>688</v>
       </c>
       <c r="D222" t="s">
-        <v>737</v>
+        <v>689</v>
       </c>
       <c r="E222" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F222" t="s">
         <v>140</v>
@@ -10664,19 +10724,19 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>696</v>
+        <v>636</v>
       </c>
       <c r="B223" t="s">
-        <v>738</v>
+        <v>690</v>
       </c>
       <c r="C223" t="s">
-        <v>739</v>
+        <v>691</v>
       </c>
       <c r="D223" t="s">
-        <v>740</v>
+        <v>692</v>
       </c>
       <c r="E223" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F223" t="s">
         <v>140</v>
@@ -10693,19 +10753,19 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>696</v>
+        <v>636</v>
       </c>
       <c r="B224" t="s">
-        <v>741</v>
+        <v>693</v>
       </c>
       <c r="C224" t="s">
-        <v>742</v>
+        <v>694</v>
       </c>
       <c r="D224" t="s">
-        <v>743</v>
+        <v>695</v>
       </c>
       <c r="E224" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F224" t="s">
         <v>140</v>
@@ -10725,16 +10785,16 @@
         <v>696</v>
       </c>
       <c r="B225" t="s">
-        <v>744</v>
+        <v>697</v>
       </c>
       <c r="C225" t="s">
-        <v>745</v>
+        <v>698</v>
       </c>
       <c r="D225" t="s">
-        <v>746</v>
+        <v>699</v>
       </c>
       <c r="E225" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="F225" t="s">
         <v>140</v>
@@ -10754,16 +10814,16 @@
         <v>696</v>
       </c>
       <c r="B226" t="s">
-        <v>747</v>
+        <v>700</v>
       </c>
       <c r="C226" t="s">
-        <v>748</v>
+        <v>701</v>
       </c>
       <c r="D226" t="s">
-        <v>749</v>
+        <v>702</v>
       </c>
       <c r="E226" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="F226" t="s">
         <v>140</v>
@@ -10783,19 +10843,19 @@
         <v>696</v>
       </c>
       <c r="B227" t="s">
-        <v>750</v>
+        <v>703</v>
       </c>
       <c r="C227" t="s">
-        <v>751</v>
+        <v>115</v>
       </c>
       <c r="D227" t="s">
-        <v>752</v>
+        <v>704</v>
       </c>
       <c r="E227" t="s">
         <v>170</v>
       </c>
       <c r="F227" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="G227" t="s">
         <v>17</v>
@@ -10812,19 +10872,19 @@
         <v>696</v>
       </c>
       <c r="B228" t="s">
-        <v>753</v>
+        <v>705</v>
       </c>
       <c r="C228" t="s">
-        <v>754</v>
+        <v>706</v>
       </c>
       <c r="D228" t="s">
-        <v>755</v>
+        <v>707</v>
       </c>
       <c r="E228" t="s">
         <v>170</v>
       </c>
       <c r="F228" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="G228" t="s">
         <v>17</v>
@@ -10841,19 +10901,19 @@
         <v>696</v>
       </c>
       <c r="B229" t="s">
-        <v>756</v>
+        <v>708</v>
       </c>
       <c r="C229" t="s">
-        <v>757</v>
+        <v>709</v>
       </c>
       <c r="D229" t="s">
-        <v>758</v>
+        <v>710</v>
       </c>
       <c r="E229" t="s">
         <v>170</v>
       </c>
       <c r="F229" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="G229" t="s">
         <v>17</v>
@@ -10870,19 +10930,19 @@
         <v>696</v>
       </c>
       <c r="B230" t="s">
-        <v>759</v>
+        <v>711</v>
       </c>
       <c r="C230" t="s">
-        <v>760</v>
+        <v>706</v>
       </c>
       <c r="D230" t="s">
-        <v>761</v>
+        <v>712</v>
       </c>
       <c r="E230" t="s">
         <v>170</v>
       </c>
       <c r="F230" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="G230" t="s">
         <v>17</v>
@@ -10899,19 +10959,19 @@
         <v>696</v>
       </c>
       <c r="B231" t="s">
-        <v>762</v>
+        <v>713</v>
       </c>
       <c r="C231" t="s">
-        <v>362</v>
+        <v>714</v>
       </c>
       <c r="D231" t="s">
-        <v>763</v>
+        <v>715</v>
       </c>
       <c r="E231" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="F231" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="G231" t="s">
         <v>17</v>
@@ -10925,22 +10985,22 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>764</v>
+        <v>696</v>
       </c>
       <c r="B232" t="s">
-        <v>765</v>
+        <v>716</v>
       </c>
       <c r="C232" t="s">
-        <v>766</v>
+        <v>717</v>
       </c>
       <c r="D232" t="s">
-        <v>767</v>
+        <v>718</v>
       </c>
       <c r="E232" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F232" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="G232" t="s">
         <v>17</v>
@@ -10954,22 +11014,22 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>764</v>
+        <v>696</v>
       </c>
       <c r="B233" t="s">
-        <v>768</v>
+        <v>719</v>
       </c>
       <c r="C233" t="s">
-        <v>769</v>
+        <v>717</v>
       </c>
       <c r="D233" t="s">
-        <v>770</v>
+        <v>720</v>
       </c>
       <c r="E233" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F233" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="G233" t="s">
         <v>17</v>
@@ -10983,25 +11043,25 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>764</v>
+        <v>696</v>
       </c>
       <c r="B234" t="s">
-        <v>771</v>
+        <v>721</v>
       </c>
       <c r="C234" t="s">
-        <v>772</v>
+        <v>722</v>
       </c>
       <c r="D234" t="s">
-        <v>773</v>
+        <v>723</v>
       </c>
       <c r="E234" t="s">
-        <v>183</v>
+        <v>46</v>
       </c>
       <c r="F234" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="G234" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H234" t="s">
         <v>311</v>
@@ -11012,25 +11072,25 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>764</v>
+        <v>696</v>
       </c>
       <c r="B235" t="s">
-        <v>774</v>
+        <v>724</v>
       </c>
       <c r="C235" t="s">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="D235" t="s">
-        <v>776</v>
+        <v>726</v>
       </c>
       <c r="E235" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="F235" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="G235" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H235" t="s">
         <v>311</v>
@@ -11041,25 +11101,25 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>764</v>
+        <v>696</v>
       </c>
       <c r="B236" t="s">
-        <v>777</v>
+        <v>727</v>
       </c>
       <c r="C236" t="s">
-        <v>778</v>
+        <v>728</v>
       </c>
       <c r="D236" t="s">
-        <v>779</v>
+        <v>729</v>
       </c>
       <c r="E236" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F236" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="G236" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H236" t="s">
         <v>311</v>
@@ -11070,25 +11130,25 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>764</v>
+        <v>696</v>
       </c>
       <c r="B237" t="s">
-        <v>780</v>
+        <v>730</v>
       </c>
       <c r="C237" t="s">
-        <v>781</v>
+        <v>731</v>
       </c>
       <c r="D237" t="s">
-        <v>782</v>
+        <v>732</v>
       </c>
       <c r="E237" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="F237" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="G237" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H237" t="s">
         <v>311</v>
@@ -11099,25 +11159,25 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>764</v>
+        <v>696</v>
       </c>
       <c r="B238" t="s">
-        <v>783</v>
+        <v>733</v>
       </c>
       <c r="C238" t="s">
-        <v>784</v>
+        <v>645</v>
       </c>
       <c r="D238" t="s">
-        <v>785</v>
+        <v>734</v>
       </c>
       <c r="E238" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="F238" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="G238" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H238" t="s">
         <v>311</v>
@@ -11128,25 +11188,25 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>764</v>
+        <v>696</v>
       </c>
       <c r="B239" t="s">
-        <v>786</v>
+        <v>735</v>
       </c>
       <c r="C239" t="s">
-        <v>787</v>
+        <v>736</v>
       </c>
       <c r="D239" t="s">
-        <v>788</v>
+        <v>737</v>
       </c>
       <c r="E239" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="F239" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="G239" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H239" t="s">
         <v>311</v>
@@ -11157,25 +11217,25 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>764</v>
+        <v>696</v>
       </c>
       <c r="B240" t="s">
-        <v>789</v>
+        <v>738</v>
       </c>
       <c r="C240" t="s">
-        <v>790</v>
+        <v>739</v>
       </c>
       <c r="D240" t="s">
-        <v>791</v>
+        <v>740</v>
       </c>
       <c r="E240" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F240" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="G240" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H240" t="s">
         <v>311</v>
@@ -11186,25 +11246,25 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>764</v>
+        <v>696</v>
       </c>
       <c r="B241" t="s">
-        <v>792</v>
+        <v>741</v>
       </c>
       <c r="C241" t="s">
-        <v>793</v>
+        <v>742</v>
       </c>
       <c r="D241" t="s">
-        <v>794</v>
+        <v>743</v>
       </c>
       <c r="E241" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F241" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="G241" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H241" t="s">
         <v>311</v>
@@ -11215,25 +11275,25 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>764</v>
+        <v>696</v>
       </c>
       <c r="B242" t="s">
-        <v>795</v>
+        <v>744</v>
       </c>
       <c r="C242" t="s">
-        <v>796</v>
+        <v>745</v>
       </c>
       <c r="D242" t="s">
-        <v>797</v>
+        <v>746</v>
       </c>
       <c r="E242" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F242" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="G242" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H242" t="s">
         <v>311</v>
@@ -11244,25 +11304,25 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>764</v>
+        <v>696</v>
       </c>
       <c r="B243" t="s">
-        <v>798</v>
+        <v>747</v>
       </c>
       <c r="C243" t="s">
-        <v>799</v>
+        <v>748</v>
       </c>
       <c r="D243" t="s">
-        <v>800</v>
+        <v>749</v>
       </c>
       <c r="E243" t="s">
         <v>25</v>
       </c>
-      <c r="F243">
-        <v>0</v>
+      <c r="F243" t="s">
+        <v>140</v>
       </c>
       <c r="G243" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H243" t="s">
         <v>311</v>
@@ -11273,25 +11333,25 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>764</v>
+        <v>696</v>
       </c>
       <c r="B244" t="s">
-        <v>801</v>
+        <v>750</v>
       </c>
       <c r="C244" t="s">
-        <v>802</v>
+        <v>751</v>
       </c>
       <c r="D244" t="s">
-        <v>803</v>
+        <v>752</v>
       </c>
       <c r="E244" t="s">
-        <v>46</v>
-      </c>
-      <c r="F244">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="F244" t="s">
+        <v>140</v>
       </c>
       <c r="G244" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H244" t="s">
         <v>311</v>
@@ -11302,25 +11362,25 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>764</v>
+        <v>696</v>
       </c>
       <c r="B245" t="s">
-        <v>804</v>
+        <v>753</v>
       </c>
       <c r="C245" t="s">
-        <v>805</v>
+        <v>754</v>
       </c>
       <c r="D245" t="s">
-        <v>806</v>
+        <v>755</v>
       </c>
       <c r="E245" t="s">
         <v>170</v>
       </c>
-      <c r="F245">
-        <v>0</v>
+      <c r="F245" t="s">
+        <v>140</v>
       </c>
       <c r="G245" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H245" t="s">
         <v>311</v>
@@ -11331,25 +11391,25 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>764</v>
+        <v>696</v>
       </c>
       <c r="B246" t="s">
-        <v>807</v>
+        <v>756</v>
       </c>
       <c r="C246" t="s">
-        <v>808</v>
+        <v>757</v>
       </c>
       <c r="D246" t="s">
-        <v>800</v>
+        <v>758</v>
       </c>
       <c r="E246" t="s">
-        <v>25</v>
-      </c>
-      <c r="F246">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="F246" t="s">
+        <v>140</v>
       </c>
       <c r="G246" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H246" t="s">
         <v>311</v>
@@ -11360,25 +11420,25 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>764</v>
+        <v>696</v>
       </c>
       <c r="B247" t="s">
-        <v>809</v>
+        <v>759</v>
       </c>
       <c r="C247" t="s">
-        <v>810</v>
+        <v>760</v>
       </c>
       <c r="D247" t="s">
-        <v>811</v>
+        <v>761</v>
       </c>
       <c r="E247" t="s">
-        <v>25</v>
-      </c>
-      <c r="F247">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="F247" t="s">
+        <v>140</v>
       </c>
       <c r="G247" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H247" t="s">
         <v>311</v>
@@ -11387,27 +11447,27 @@
         <v>115</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>764</v>
+        <v>696</v>
       </c>
       <c r="B248" t="s">
-        <v>812</v>
+        <v>762</v>
       </c>
       <c r="C248" t="s">
-        <v>813</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>814</v>
+        <v>362</v>
+      </c>
+      <c r="D248" t="s">
+        <v>763</v>
       </c>
       <c r="E248" t="s">
-        <v>83</v>
-      </c>
-      <c r="F248">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="F248" t="s">
+        <v>140</v>
       </c>
       <c r="G248" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H248" t="s">
         <v>311</v>
@@ -11421,22 +11481,22 @@
         <v>764</v>
       </c>
       <c r="B249" t="s">
-        <v>815</v>
+        <v>765</v>
       </c>
       <c r="C249" t="s">
-        <v>816</v>
+        <v>766</v>
       </c>
       <c r="D249" t="s">
-        <v>817</v>
+        <v>767</v>
       </c>
       <c r="E249" t="s">
-        <v>83</v>
-      </c>
-      <c r="F249">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F249" t="s">
+        <v>16</v>
       </c>
       <c r="G249" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H249" t="s">
         <v>311</v>
@@ -11450,22 +11510,22 @@
         <v>764</v>
       </c>
       <c r="B250" t="s">
-        <v>818</v>
+        <v>768</v>
       </c>
       <c r="C250" t="s">
-        <v>819</v>
+        <v>769</v>
       </c>
       <c r="D250" t="s">
-        <v>820</v>
+        <v>770</v>
       </c>
       <c r="E250" t="s">
         <v>25</v>
       </c>
-      <c r="F250">
-        <v>0</v>
+      <c r="F250" t="s">
+        <v>16</v>
       </c>
       <c r="G250" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H250" t="s">
         <v>311</v>
@@ -11475,6 +11535,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K250">
+    <sortCondition ref="G2:G250"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11483,7 +11546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF6AC19-BCF2-4A1E-A7E1-0C7F769F7698}">
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/PROJECT/Project 1/project1.xlsx
+++ b/PROJECT/Project 1/project1.xlsx
@@ -8,20 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martinezar\Desktop\python\project\Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25C6F9CD-DF8C-445F-834E-334078AFD25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671C9BA2-97FD-4377-98CC-811C9A65905A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B19F6FDF-1118-41ED-8D07-8DFE2BBF9769}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B19F6FDF-1118-41ED-8D07-8DFE2BBF9769}"/>
   </bookViews>
   <sheets>
     <sheet name="ICBM Requirements" sheetId="1" r:id="rId1"/>
     <sheet name="ICBM Verification" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2789" uniqueCount="1071">
   <si>
     <t>Configuration Items</t>
   </si>
@@ -2494,84 +2507,21 @@
     <t>Risk could cause FTV-1 to veer off course.</t>
   </si>
   <si>
-    <t>VerificationNumber</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>VerificationMethod</t>
-  </si>
-  <si>
-    <t>Objectives</t>
-  </si>
-  <si>
-    <t>SecondaryObjectives</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>SuccessCriteria</t>
-  </si>
-  <si>
-    <t>DetailedDescription</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
-    <t>DataAcqRqmts</t>
-  </si>
-  <si>
     <t>Configurations</t>
   </si>
   <si>
     <t>Reports</t>
   </si>
   <si>
-    <t>CommentsSupportingInfo</t>
-  </si>
-  <si>
-    <t>ModelingSimAnalytical</t>
-  </si>
-  <si>
-    <t>ScenarioRunConditions</t>
-  </si>
-  <si>
-    <t>TechnicalAssumptions</t>
-  </si>
-  <si>
     <t>ClassificationSecurity</t>
   </si>
   <si>
-    <t>SwUseRestrictions</t>
-  </si>
-  <si>
-    <t>ExecutionInfo</t>
-  </si>
-  <si>
-    <t>EntranceInfo</t>
-  </si>
-  <si>
-    <t>SupportingLocation</t>
-  </si>
-  <si>
-    <t>SupportingContractor</t>
-  </si>
-  <si>
-    <t>Constraints</t>
-  </si>
-  <si>
-    <t>Prerequirements</t>
-  </si>
-  <si>
-    <t>PersReqd</t>
-  </si>
-  <si>
-    <t>DataRedRqmts</t>
-  </si>
-  <si>
     <t>Project-11-001</t>
   </si>
   <si>
@@ -3227,6 +3177,84 @@
   </si>
   <si>
     <t>Close Date</t>
+  </si>
+  <si>
+    <t>Event Number</t>
+  </si>
+  <si>
+    <t>Event Title</t>
+  </si>
+  <si>
+    <t>Primary Objectives</t>
+  </si>
+  <si>
+    <t>Secondary Objectives</t>
+  </si>
+  <si>
+    <t>Success Criteria</t>
+  </si>
+  <si>
+    <t>Detailed Description</t>
+  </si>
+  <si>
+    <t>Data Acquisition Requirements</t>
+  </si>
+  <si>
+    <t>Lessons Learned</t>
+  </si>
+  <si>
+    <t>Technical Assumptions</t>
+  </si>
+  <si>
+    <t>Software Use Restrictions</t>
+  </si>
+  <si>
+    <t>Entrance Info</t>
+  </si>
+  <si>
+    <t>Supporting Location</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Resonsible Engineer</t>
+  </si>
+  <si>
+    <t>Dunn, Joe</t>
+  </si>
+  <si>
+    <t>Jessica, Ferkula</t>
+  </si>
+  <si>
+    <t>Jonas, Judy</t>
+  </si>
+  <si>
+    <t>Martin, Craig</t>
+  </si>
+  <si>
+    <t>Greco, Gordon</t>
+  </si>
+  <si>
+    <t>Ford, Gerry</t>
+  </si>
+  <si>
+    <t>Garcia, Bob</t>
+  </si>
+  <si>
+    <t>Hass, Andy</t>
+  </si>
+  <si>
+    <t>Ho, Jay</t>
+  </si>
+  <si>
+    <t>Cartwright, Jerry</t>
+  </si>
+  <si>
+    <t>Rodriguez, Jeff</t>
   </si>
 </sst>
 </file>
@@ -3369,7 +3397,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3549,12 +3577,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -3724,13 +3746,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4108,7 +4130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A235C8-08DD-4E4C-896B-0BADA2F0A9E8}">
   <dimension ref="A1:L250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M84" sqref="M84"/>
     </sheetView>
   </sheetViews>
@@ -4158,7 +4180,7 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>1065</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -4195,7 +4217,7 @@
       <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>45598</v>
       </c>
     </row>
@@ -4233,7 +4255,7 @@
       <c r="K3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>45627</v>
       </c>
     </row>
@@ -4271,7 +4293,7 @@
       <c r="K4" t="s">
         <v>59</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>45628</v>
       </c>
     </row>
@@ -4309,7 +4331,7 @@
       <c r="K5" t="s">
         <v>64</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>45629</v>
       </c>
     </row>
@@ -4347,7 +4369,7 @@
       <c r="K6" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>45630</v>
       </c>
     </row>
@@ -4385,7 +4407,7 @@
       <c r="K7" t="s">
         <v>74</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>45723</v>
       </c>
     </row>
@@ -4417,7 +4439,7 @@
       <c r="J8" t="s">
         <v>115</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <v>45724</v>
       </c>
     </row>
@@ -4449,7 +4471,7 @@
       <c r="J9" t="s">
         <v>115</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>45725</v>
       </c>
     </row>
@@ -4481,7 +4503,7 @@
       <c r="J10" t="s">
         <v>115</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>45726</v>
       </c>
     </row>
@@ -4513,7 +4535,7 @@
       <c r="J11" t="s">
         <v>115</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>45727</v>
       </c>
     </row>
@@ -4545,7 +4567,7 @@
       <c r="J12" t="s">
         <v>115</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>45728</v>
       </c>
     </row>
@@ -4577,7 +4599,7 @@
       <c r="J13" t="s">
         <v>115</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <v>45729</v>
       </c>
     </row>
@@ -4609,7 +4631,7 @@
       <c r="J14" t="s">
         <v>115</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <v>45730</v>
       </c>
     </row>
@@ -4641,7 +4663,7 @@
       <c r="J15" t="s">
         <v>115</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <v>45731</v>
       </c>
     </row>
@@ -4673,7 +4695,7 @@
       <c r="J16" t="s">
         <v>115</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <v>45732</v>
       </c>
     </row>
@@ -4705,7 +4727,7 @@
       <c r="J17" t="s">
         <v>115</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <v>45630</v>
       </c>
     </row>
@@ -4737,7 +4759,7 @@
       <c r="J18" t="s">
         <v>115</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <v>45723</v>
       </c>
     </row>
@@ -4769,7 +4791,7 @@
       <c r="J19" t="s">
         <v>115</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <v>45724</v>
       </c>
     </row>
@@ -4801,7 +4823,7 @@
       <c r="J20" t="s">
         <v>115</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="4">
         <v>45725</v>
       </c>
     </row>
@@ -4833,7 +4855,7 @@
       <c r="J21" t="s">
         <v>115</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="4">
         <v>45726</v>
       </c>
     </row>
@@ -4865,7 +4887,7 @@
       <c r="J22" t="s">
         <v>115</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="4">
         <v>45727</v>
       </c>
     </row>
@@ -4897,7 +4919,7 @@
       <c r="J23" t="s">
         <v>115</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="4">
         <v>45728</v>
       </c>
     </row>
@@ -4929,7 +4951,7 @@
       <c r="J24" t="s">
         <v>115</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="4">
         <v>45729</v>
       </c>
     </row>
@@ -4967,7 +4989,7 @@
       <c r="K25" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="4">
         <v>45598</v>
       </c>
     </row>
@@ -5005,7 +5027,7 @@
       <c r="K26" t="s">
         <v>27</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="4">
         <v>45627</v>
       </c>
     </row>
@@ -5043,7 +5065,7 @@
       <c r="K27" t="s">
         <v>32</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="4">
         <v>45628</v>
       </c>
     </row>
@@ -5081,7 +5103,7 @@
       <c r="K28" t="s">
         <v>37</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="4">
         <v>45629</v>
       </c>
     </row>
@@ -5119,7 +5141,7 @@
       <c r="K29" t="s">
         <v>42</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="4">
         <v>45630</v>
       </c>
     </row>
@@ -5157,7 +5179,7 @@
       <c r="K30" t="s">
         <v>79</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="4">
         <v>45598</v>
       </c>
     </row>
@@ -5195,7 +5217,7 @@
       <c r="K31" t="s">
         <v>85</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="4">
         <v>45627</v>
       </c>
     </row>
@@ -5233,7 +5255,7 @@
       <c r="K32" t="s">
         <v>90</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="4">
         <v>45628</v>
       </c>
     </row>
@@ -5271,7 +5293,7 @@
       <c r="K33" t="s">
         <v>95</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="4">
         <v>45629</v>
       </c>
     </row>
@@ -5309,7 +5331,7 @@
       <c r="K34" t="s">
         <v>100</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="4">
         <v>45630</v>
       </c>
     </row>
@@ -5347,7 +5369,7 @@
       <c r="K35" t="s">
         <v>105</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="4">
         <v>45598</v>
       </c>
     </row>
@@ -5385,7 +5407,7 @@
       <c r="K36" t="s">
         <v>110</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="4">
         <v>45627</v>
       </c>
     </row>
@@ -5423,7 +5445,7 @@
       <c r="K37" t="s">
         <v>116</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="4">
         <v>45628</v>
       </c>
     </row>
@@ -5461,7 +5483,7 @@
       <c r="K38" t="s">
         <v>121</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="4">
         <v>45629</v>
       </c>
     </row>
@@ -5496,7 +5518,7 @@
       <c r="J39" t="s">
         <v>115</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="4">
         <v>45630</v>
       </c>
     </row>
@@ -5531,7 +5553,7 @@
       <c r="J40" t="s">
         <v>115</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="4">
         <v>45598</v>
       </c>
     </row>
@@ -5566,7 +5588,7 @@
       <c r="J41" t="s">
         <v>115</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41" s="4">
         <v>45627</v>
       </c>
     </row>
@@ -5601,7 +5623,7 @@
       <c r="J42" t="s">
         <v>115</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="4">
         <v>45628</v>
       </c>
     </row>
@@ -5636,7 +5658,7 @@
       <c r="J43" t="s">
         <v>115</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="4">
         <v>45629</v>
       </c>
     </row>
@@ -5671,7 +5693,7 @@
       <c r="J44" t="s">
         <v>115</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="4">
         <v>45630</v>
       </c>
     </row>
@@ -5703,7 +5725,7 @@
       <c r="J45" t="s">
         <v>115</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="4">
         <v>45598</v>
       </c>
     </row>
@@ -5738,7 +5760,7 @@
       <c r="J46" t="s">
         <v>115</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="4">
         <v>45658</v>
       </c>
     </row>
@@ -5773,7 +5795,7 @@
       <c r="J47" t="s">
         <v>115</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47" s="4">
         <v>45659</v>
       </c>
     </row>
@@ -5805,7 +5827,7 @@
       <c r="J48" t="s">
         <v>115</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L48" s="4">
         <v>45660</v>
       </c>
     </row>
@@ -5840,7 +5862,7 @@
       <c r="J49" t="s">
         <v>115</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L49" s="4">
         <v>45661</v>
       </c>
     </row>
@@ -5872,7 +5894,7 @@
       <c r="J50" t="s">
         <v>115</v>
       </c>
-      <c r="L50" s="5">
+      <c r="L50" s="4">
         <v>45662</v>
       </c>
     </row>
@@ -5904,7 +5926,7 @@
       <c r="J51" t="s">
         <v>115</v>
       </c>
-      <c r="L51" s="5">
+      <c r="L51" s="4">
         <v>45663</v>
       </c>
     </row>
@@ -5936,7 +5958,7 @@
       <c r="J52" t="s">
         <v>115</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L52" s="4">
         <v>45664</v>
       </c>
     </row>
@@ -5968,7 +5990,7 @@
       <c r="J53" t="s">
         <v>115</v>
       </c>
-      <c r="L53" s="5">
+      <c r="L53" s="4">
         <v>45665</v>
       </c>
     </row>
@@ -6000,7 +6022,7 @@
       <c r="J54" t="s">
         <v>115</v>
       </c>
-      <c r="L54" s="5">
+      <c r="L54" s="4">
         <v>45666</v>
       </c>
     </row>
@@ -6032,7 +6054,7 @@
       <c r="J55" t="s">
         <v>115</v>
       </c>
-      <c r="L55" s="5">
+      <c r="L55" s="4">
         <v>45667</v>
       </c>
     </row>
@@ -6061,7 +6083,7 @@
       <c r="J56" t="s">
         <v>115</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="4">
         <v>45668</v>
       </c>
     </row>
@@ -6093,7 +6115,7 @@
       <c r="J57" t="s">
         <v>115</v>
       </c>
-      <c r="L57" s="5">
+      <c r="L57" s="4">
         <v>45669</v>
       </c>
     </row>
@@ -6125,7 +6147,7 @@
       <c r="J58" t="s">
         <v>115</v>
       </c>
-      <c r="L58" s="5">
+      <c r="L58" s="4">
         <v>45670</v>
       </c>
     </row>
@@ -6157,7 +6179,7 @@
       <c r="J59" t="s">
         <v>200</v>
       </c>
-      <c r="L59" s="5">
+      <c r="L59" s="4">
         <v>45671</v>
       </c>
     </row>
@@ -6189,7 +6211,7 @@
       <c r="J60" t="s">
         <v>200</v>
       </c>
-      <c r="L60" s="5">
+      <c r="L60" s="4">
         <v>45672</v>
       </c>
     </row>
@@ -6221,7 +6243,7 @@
       <c r="J61" t="s">
         <v>200</v>
       </c>
-      <c r="L61" s="5">
+      <c r="L61" s="4">
         <v>45673</v>
       </c>
     </row>
@@ -6250,7 +6272,7 @@
       <c r="J62" t="s">
         <v>200</v>
       </c>
-      <c r="L62" s="5">
+      <c r="L62" s="4">
         <v>45627</v>
       </c>
     </row>
@@ -6282,7 +6304,7 @@
       <c r="J63" t="s">
         <v>200</v>
       </c>
-      <c r="L63" s="5">
+      <c r="L63" s="4">
         <v>45628</v>
       </c>
     </row>
@@ -6314,7 +6336,7 @@
       <c r="J64" t="s">
         <v>200</v>
       </c>
-      <c r="L64" s="5">
+      <c r="L64" s="4">
         <v>45629</v>
       </c>
     </row>
@@ -6346,7 +6368,7 @@
       <c r="J65" t="s">
         <v>200</v>
       </c>
-      <c r="L65" s="5">
+      <c r="L65" s="4">
         <v>45630</v>
       </c>
     </row>
@@ -6378,7 +6400,7 @@
       <c r="J66" t="s">
         <v>200</v>
       </c>
-      <c r="L66" s="5">
+      <c r="L66" s="4">
         <v>45598</v>
       </c>
     </row>
@@ -6410,7 +6432,7 @@
       <c r="J67" t="s">
         <v>200</v>
       </c>
-      <c r="L67" s="5">
+      <c r="L67" s="4">
         <v>45627</v>
       </c>
     </row>
@@ -6439,7 +6461,7 @@
       <c r="J68" t="s">
         <v>200</v>
       </c>
-      <c r="L68" s="5">
+      <c r="L68" s="4">
         <v>45628</v>
       </c>
     </row>
@@ -6471,7 +6493,7 @@
       <c r="J69" t="s">
         <v>200</v>
       </c>
-      <c r="L69" s="5">
+      <c r="L69" s="4">
         <v>45629</v>
       </c>
     </row>
@@ -6503,7 +6525,7 @@
       <c r="J70" t="s">
         <v>200</v>
       </c>
-      <c r="L70" s="5">
+      <c r="L70" s="4">
         <v>45630</v>
       </c>
     </row>
@@ -6535,7 +6557,7 @@
       <c r="J71" t="s">
         <v>200</v>
       </c>
-      <c r="L71" s="5">
+      <c r="L71" s="4">
         <v>45598</v>
       </c>
     </row>
@@ -6564,7 +6586,7 @@
       <c r="J72" t="s">
         <v>200</v>
       </c>
-      <c r="L72" s="5">
+      <c r="L72" s="4">
         <v>45658</v>
       </c>
     </row>
@@ -6596,7 +6618,7 @@
       <c r="J73" t="s">
         <v>200</v>
       </c>
-      <c r="L73" s="5">
+      <c r="L73" s="4">
         <v>45659</v>
       </c>
     </row>
@@ -6628,7 +6650,7 @@
       <c r="J74" t="s">
         <v>200</v>
       </c>
-      <c r="L74" s="5">
+      <c r="L74" s="4">
         <v>45660</v>
       </c>
     </row>
@@ -6657,7 +6679,7 @@
       <c r="J75" t="s">
         <v>200</v>
       </c>
-      <c r="L75" s="5">
+      <c r="L75" s="4">
         <v>45661</v>
       </c>
     </row>
@@ -6689,7 +6711,7 @@
       <c r="J76" t="s">
         <v>200</v>
       </c>
-      <c r="L76" s="5">
+      <c r="L76" s="4">
         <v>45662</v>
       </c>
     </row>
@@ -6721,7 +6743,7 @@
       <c r="J77" t="s">
         <v>200</v>
       </c>
-      <c r="L77" s="5">
+      <c r="L77" s="4">
         <v>45663</v>
       </c>
     </row>
@@ -6753,7 +6775,7 @@
       <c r="J78" t="s">
         <v>200</v>
       </c>
-      <c r="L78" s="5">
+      <c r="L78" s="4">
         <v>45664</v>
       </c>
     </row>
@@ -6785,7 +6807,7 @@
       <c r="J79" t="s">
         <v>263</v>
       </c>
-      <c r="L79" s="5">
+      <c r="L79" s="4">
         <v>45665</v>
       </c>
     </row>
@@ -6817,7 +6839,7 @@
       <c r="J80" t="s">
         <v>263</v>
       </c>
-      <c r="L80" s="5">
+      <c r="L80" s="4">
         <v>45666</v>
       </c>
     </row>
@@ -6849,7 +6871,7 @@
       <c r="J81" t="s">
         <v>263</v>
       </c>
-      <c r="L81" s="5">
+      <c r="L81" s="4">
         <v>45667</v>
       </c>
     </row>
@@ -6881,7 +6903,7 @@
       <c r="J82" t="s">
         <v>263</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="4">
         <v>45668</v>
       </c>
     </row>
@@ -6913,7 +6935,7 @@
       <c r="J83" t="s">
         <v>263</v>
       </c>
-      <c r="L83" s="5">
+      <c r="L83" s="4">
         <v>45669</v>
       </c>
     </row>
@@ -11746,1579 +11768,1816 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF6AC19-BCF2-4A1E-A7E1-0C7F769F7698}">
-  <dimension ref="A1:Z28"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="O29" sqref="A29:XFD86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="80.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="53.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="60.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="71.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="58.28515625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="52.5703125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="89.7109375" style="4" customWidth="1"/>
-    <col min="17" max="17" width="22.7109375" style="4" customWidth="1"/>
-    <col min="18" max="18" width="23.140625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="24.28515625" style="4" customWidth="1"/>
-    <col min="20" max="21" width="20.85546875" style="4" customWidth="1"/>
-    <col min="22" max="22" width="21.85546875" style="4" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="4" customWidth="1"/>
-    <col min="24" max="24" width="20.5703125" style="4" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="4"/>
-    <col min="26" max="26" width="21.140625" style="4" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="2" width="20.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="80.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="60.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="71.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="58.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="52.5703125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="89.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="23.140625" style="3" customWidth="1"/>
+    <col min="17" max="18" width="20.85546875" style="3" customWidth="1"/>
+    <col min="19" max="20" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.28515625" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>827</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>848</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>849</v>
+        <v>828</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>850</v>
+        <v>829</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>851</v>
+        <v>830</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>852</v>
+        <v>831</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>853</v>
+        <v>832</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>858</v>
+        <v>837</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>839</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>859</v>
+        <v>840</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>862</v>
+        <v>842</v>
+      </c>
+      <c r="S2" s="5">
+        <v>45567</v>
+      </c>
+      <c r="T2" s="5">
+        <f>S2+30</f>
+        <v>45597</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>865</v>
+        <v>843</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>844</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>870</v>
+        <v>849</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="S3" s="5">
+        <v>45568</v>
+      </c>
+      <c r="T3" s="5">
+        <f t="shared" ref="T3:T28" si="0">S3+30</f>
+        <v>45598</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>854</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>875</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>170</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>876</v>
+        <v>855</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>877</v>
+        <v>856</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>878</v>
+        <v>857</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="Q4" s="2" t="s">
+      <c r="S4" s="5">
+        <v>45569</v>
+      </c>
+      <c r="T4" s="5">
+        <f t="shared" si="0"/>
+        <v>45599</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>860</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>881</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>882</v>
+        <v>861</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>883</v>
+        <v>862</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>884</v>
+        <v>863</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>885</v>
+        <v>864</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>884</v>
+        <v>863</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>886</v>
+        <v>865</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>858</v>
+        <v>837</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>839</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>872</v>
+        <v>840</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>862</v>
+        <v>866</v>
+      </c>
+      <c r="S5" s="5">
+        <v>45570</v>
+      </c>
+      <c r="T5" s="5">
+        <f t="shared" si="0"/>
+        <v>45600</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>888</v>
+        <v>867</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>889</v>
+        <v>868</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>170</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>890</v>
+        <v>869</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>891</v>
+        <v>870</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>892</v>
+        <v>871</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>890</v>
+        <v>869</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>892</v>
+        <v>871</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>858</v>
+        <v>837</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>839</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>872</v>
+        <v>840</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>862</v>
+        <v>873</v>
+      </c>
+      <c r="S6" s="5">
+        <v>45571</v>
+      </c>
+      <c r="T6" s="5">
+        <f t="shared" si="0"/>
+        <v>45601</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="2" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="2" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>896</v>
+        <v>875</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>897</v>
+        <v>876</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>898</v>
+        <v>877</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>897</v>
+        <v>876</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>901</v>
+        <v>880</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>858</v>
+        <v>837</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>840</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>862</v>
+        <v>881</v>
+      </c>
+      <c r="S7" s="5">
+        <v>45572</v>
+      </c>
+      <c r="T7" s="5">
+        <f t="shared" si="0"/>
+        <v>45602</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>903</v>
+        <v>882</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>904</v>
+        <v>883</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>905</v>
+        <v>884</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>906</v>
+        <v>885</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>907</v>
+        <v>886</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>908</v>
+        <v>887</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>909</v>
+        <v>888</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>858</v>
+        <v>837</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>839</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>908</v>
+        <v>840</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>862</v>
+        <v>889</v>
+      </c>
+      <c r="S8" s="5">
+        <v>45573</v>
+      </c>
+      <c r="T8" s="5">
+        <f t="shared" si="0"/>
+        <v>45603</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" s="2" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="2" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>912</v>
+        <v>891</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>170</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>914</v>
+        <v>893</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>883</v>
+        <v>862</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>915</v>
+        <v>894</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>916</v>
+        <v>895</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>858</v>
+        <v>837</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>840</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>862</v>
+        <v>896</v>
+      </c>
+      <c r="S9" s="5">
+        <v>45574</v>
+      </c>
+      <c r="T9" s="5">
+        <f t="shared" si="0"/>
+        <v>45604</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="240" x14ac:dyDescent="0.25">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="240" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>918</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>919</v>
+        <v>897</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>898</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>920</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>883</v>
+      <c r="D10" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>862</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>922</v>
+        <v>901</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>923</v>
+        <v>902</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>858</v>
+        <v>837</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>839</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>924</v>
+        <v>840</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+        <v>904</v>
+      </c>
+      <c r="S10" s="5">
+        <v>45575</v>
+      </c>
+      <c r="T10" s="5">
+        <f t="shared" si="0"/>
+        <v>45605</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>926</v>
+        <v>905</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>927</v>
+        <v>906</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>929</v>
+        <v>908</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>930</v>
+        <v>909</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>908</v>
+        <v>887</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>932</v>
+        <v>911</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>858</v>
+        <v>837</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>839</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>924</v>
+        <v>840</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>862</v>
+        <v>912</v>
+      </c>
+      <c r="S11" s="5">
+        <v>45576</v>
+      </c>
+      <c r="T11" s="5">
+        <f t="shared" si="0"/>
+        <v>45606</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="195" x14ac:dyDescent="0.25">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>934</v>
+        <v>913</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>935</v>
+        <v>914</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>170</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>936</v>
+        <v>915</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>937</v>
+        <v>916</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>938</v>
+        <v>917</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>908</v>
+        <v>887</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>939</v>
+        <v>918</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+        <v>837</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>839</v>
+      </c>
       <c r="P12" s="2" t="s">
-        <v>924</v>
+        <v>840</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="165" x14ac:dyDescent="0.25">
+        <v>919</v>
+      </c>
+      <c r="S12" s="5">
+        <v>45577</v>
+      </c>
+      <c r="T12" s="5">
+        <f t="shared" si="0"/>
+        <v>45607</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>941</v>
+        <v>920</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>942</v>
+        <v>921</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>943</v>
+        <v>922</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>944</v>
+        <v>923</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>945</v>
+        <v>924</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>908</v>
+        <v>887</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="L13" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="S13" s="5">
+        <v>45578</v>
+      </c>
+      <c r="T13" s="5">
+        <f t="shared" si="0"/>
+        <v>45608</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="210" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="S14" s="5">
+        <v>45579</v>
+      </c>
+      <c r="T14" s="5">
+        <f t="shared" si="0"/>
+        <v>45609</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="150" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="S15" s="5">
+        <v>45580</v>
+      </c>
+      <c r="T15" s="5">
+        <f t="shared" si="0"/>
+        <v>45610</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="210" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="U13" s="2" t="s">
+      <c r="G16" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" ht="210" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="I16" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="M16" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="R16" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>951</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>954</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="150" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>957</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>959</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="210" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>964</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>965</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>968</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>970</v>
+      <c r="S16" s="5">
+        <v>45581</v>
+      </c>
+      <c r="T16" s="5">
+        <f t="shared" si="0"/>
+        <v>45611</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>972</v>
-      </c>
-      <c r="C17" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>973</v>
+      <c r="D17" s="3" t="s">
+        <v>952</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>974</v>
+        <v>953</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>975</v>
+        <v>954</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>976</v>
+        <v>887</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>955</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>977</v>
+        <v>956</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>858</v>
+        <v>837</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>839</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>924</v>
+        <v>840</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>978</v>
+        <v>957</v>
+      </c>
+      <c r="S17" s="5">
+        <v>45582</v>
+      </c>
+      <c r="T17" s="5">
+        <f t="shared" si="0"/>
+        <v>45612</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>979</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="C18" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>981</v>
+      <c r="D18" s="3" t="s">
+        <v>960</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>982</v>
+        <v>961</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>983</v>
+        <v>962</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>984</v>
+        <v>887</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>963</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>985</v>
+        <v>964</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>858</v>
+        <v>837</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>839</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>924</v>
+        <v>840</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>986</v>
+        <v>965</v>
+      </c>
+      <c r="S18" s="5">
+        <v>45583</v>
+      </c>
+      <c r="T18" s="5">
+        <f t="shared" si="0"/>
+        <v>45613</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>988</v>
-      </c>
-      <c r="C19" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>989</v>
+      <c r="D19" s="3" t="s">
+        <v>968</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>990</v>
+        <v>969</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>991</v>
+        <v>887</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>970</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>992</v>
+        <v>971</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>858</v>
+        <v>837</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>839</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>924</v>
+        <v>840</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>993</v>
+        <v>972</v>
+      </c>
+      <c r="S19" s="5">
+        <v>45584</v>
+      </c>
+      <c r="T19" s="5">
+        <f t="shared" si="0"/>
+        <v>45614</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="165" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>994</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>988</v>
-      </c>
-      <c r="C20" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>995</v>
+      <c r="D20" s="3" t="s">
+        <v>974</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>996</v>
+        <v>975</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>997</v>
+        <v>976</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>998</v>
+        <v>887</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>977</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>999</v>
+        <v>978</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>858</v>
+        <v>837</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>839</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>924</v>
+        <v>840</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>1000</v>
+        <v>979</v>
+      </c>
+      <c r="S20" s="5">
+        <v>45585</v>
+      </c>
+      <c r="T20" s="5">
+        <f t="shared" si="0"/>
+        <v>45615</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="165" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C21" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>1003</v>
+      <c r="D21" s="3" t="s">
+        <v>982</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1004</v>
+        <v>983</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1005</v>
+        <v>984</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>1006</v>
+        <v>887</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>985</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>1007</v>
+        <v>986</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>858</v>
+        <v>837</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>839</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>924</v>
+        <v>840</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>1008</v>
+        <v>987</v>
+      </c>
+      <c r="S21" s="5">
+        <v>45586</v>
+      </c>
+      <c r="T21" s="5">
+        <f t="shared" si="0"/>
+        <v>45616</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C22" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>1011</v>
+      <c r="D22" s="3" t="s">
+        <v>990</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1012</v>
+        <v>991</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1013</v>
+        <v>992</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>1014</v>
+        <v>887</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>993</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>1015</v>
+        <v>994</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>858</v>
+        <v>837</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>839</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>924</v>
+        <v>840</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>1016</v>
+        <v>995</v>
+      </c>
+      <c r="S22" s="5">
+        <v>45587</v>
+      </c>
+      <c r="T22" s="5">
+        <f t="shared" si="0"/>
+        <v>45617</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C23" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>1019</v>
+      <c r="D23" s="3" t="s">
+        <v>998</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1020</v>
+        <v>999</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>1021</v>
+        <v>1000</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>1022</v>
+        <v>887</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>1001</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>1023</v>
+        <v>1002</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>858</v>
+        <v>837</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>839</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>924</v>
+        <v>840</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>1024</v>
+        <v>1003</v>
+      </c>
+      <c r="S23" s="5">
+        <v>45588</v>
+      </c>
+      <c r="T23" s="5">
+        <f t="shared" si="0"/>
+        <v>45618</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>1026</v>
+        <v>1004</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1005</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>1027</v>
+      <c r="D24" s="3" t="s">
+        <v>1006</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1028</v>
+        <v>1007</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>1029</v>
+        <v>1008</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>1030</v>
+        <v>887</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>1009</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>1031</v>
+        <v>1010</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>858</v>
+        <v>837</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>839</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>924</v>
+        <v>840</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>1032</v>
+        <v>1011</v>
+      </c>
+      <c r="S24" s="5">
+        <v>45589</v>
+      </c>
+      <c r="T24" s="5">
+        <f t="shared" si="0"/>
+        <v>45619</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C25" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>1035</v>
+      <c r="D25" s="3" t="s">
+        <v>1014</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1036</v>
+        <v>1015</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>1037</v>
+        <v>1016</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>1038</v>
+        <v>887</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>1017</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>1039</v>
+        <v>1018</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>858</v>
+        <v>837</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>839</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>924</v>
+        <v>840</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="U25" s="2" t="s">
-        <v>1040</v>
+        <v>1019</v>
+      </c>
+      <c r="S25" s="5">
+        <v>45590</v>
+      </c>
+      <c r="T25" s="5">
+        <f t="shared" si="0"/>
+        <v>45620</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="210" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C26" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>1044</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>1045</v>
+      <c r="D26" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>1024</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>1043</v>
+        <v>1025</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>1022</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>1047</v>
+        <v>1026</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>858</v>
+        <v>837</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>839</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>924</v>
+        <v>840</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>1048</v>
+        <v>1027</v>
+      </c>
+      <c r="S26" s="5">
+        <v>45591</v>
+      </c>
+      <c r="T26" s="5">
+        <f t="shared" si="0"/>
+        <v>45621</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="255" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C27" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>1054</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>1055</v>
+      <c r="D27" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>1034</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>1056</v>
+        <v>1035</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>1057</v>
+        <v>837</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="S27" s="5">
+        <v>45592</v>
+      </c>
+      <c r="T27" s="5">
+        <f t="shared" si="0"/>
+        <v>45622</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C28" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>1062</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>1063</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>1064</v>
+      <c r="D28" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="S28" s="5">
+        <v>45593</v>
+      </c>
+      <c r="T28" s="5">
+        <f t="shared" si="0"/>
+        <v>45623</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>1068</v>
       </c>
     </row>
   </sheetData>
